--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0306F77-DC65-418C-907C-E09016C24365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E674C6C-E6E7-4C29-880E-A7AC2A3DC32B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Avulsos" sheetId="1" r:id="rId1"/>
-    <sheet name="Atual" sheetId="2" r:id="rId2"/>
-    <sheet name="Rota" sheetId="3" r:id="rId3"/>
+    <sheet name="Termo+Acu" sheetId="5" r:id="rId2"/>
+    <sheet name="Vibração" sheetId="4" r:id="rId3"/>
+    <sheet name="Atual" sheetId="2" r:id="rId4"/>
+    <sheet name="Rota" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Atual!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Atual!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
   <si>
     <t>Atividade</t>
   </si>
@@ -294,13 +296,100 @@
   </si>
   <si>
     <t>Rota 84</t>
+  </si>
+  <si>
+    <t>Texto para Ciclo</t>
+  </si>
+  <si>
+    <t>Área Fábio</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>ENE</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>NDT</t>
+  </si>
+  <si>
+    <t>OFC</t>
+  </si>
+  <si>
+    <t>PBL</t>
+  </si>
+  <si>
+    <t>RK</t>
+  </si>
+  <si>
+    <t>21.12</t>
+  </si>
+  <si>
+    <t>44.22</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>87.78</t>
+  </si>
+  <si>
+    <t>71.44</t>
+  </si>
+  <si>
+    <t>59.22</t>
+  </si>
+  <si>
+    <t>9.40</t>
+  </si>
+  <si>
+    <t>35.72</t>
+  </si>
+  <si>
+    <t>73.32</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>46.20</t>
+  </si>
+  <si>
+    <t>88.11</t>
+  </si>
+  <si>
+    <t>28.22</t>
+  </si>
+  <si>
+    <t>18.24</t>
+  </si>
+  <si>
+    <t>9.79</t>
+  </si>
+  <si>
+    <t>56.98</t>
+  </si>
+  <si>
+    <t>113.96</t>
+  </si>
+  <si>
+    <t>67.32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,16 +404,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -332,15 +460,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,13 +848,13 @@
   <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D173"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="4" max="4" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -691,7 +881,7 @@
       <c r="C2" s="1">
         <v>2.3333330000000001</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
     </row>
@@ -705,7 +895,7 @@
       <c r="C3" s="1">
         <v>24</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
     </row>
@@ -719,7 +909,7 @@
       <c r="C4" s="1">
         <v>1.6666669999999999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -733,8 +923,8 @@
       <c r="C5" s="1">
         <v>20</v>
       </c>
-      <c r="D5" s="2">
-        <v>5</v>
+      <c r="D5" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -747,8 +937,8 @@
       <c r="C6" s="1">
         <v>20</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
+      <c r="D6" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -761,7 +951,7 @@
       <c r="C7" s="1">
         <v>6.6666670000000003</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -775,8 +965,8 @@
       <c r="C8" s="1">
         <v>20</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
+      <c r="D8" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,7 +979,7 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>1</v>
       </c>
     </row>
@@ -803,7 +993,7 @@
       <c r="C10" s="1">
         <v>6</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>1</v>
       </c>
     </row>
@@ -817,7 +1007,7 @@
       <c r="C11" s="1">
         <v>6.6666670000000003</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>1</v>
       </c>
     </row>
@@ -831,7 +1021,7 @@
       <c r="C12" s="1">
         <v>3.3333330000000001</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>1</v>
       </c>
     </row>
@@ -845,7 +1035,7 @@
       <c r="C13" s="1">
         <v>6.6666670000000003</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>1</v>
       </c>
     </row>
@@ -859,7 +1049,7 @@
       <c r="C14" s="1">
         <v>4.6666670000000003</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>1</v>
       </c>
     </row>
@@ -873,7 +1063,7 @@
       <c r="C15" s="1">
         <v>6.3333329999999997</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>1</v>
       </c>
     </row>
@@ -887,8 +1077,8 @@
       <c r="C16" s="1">
         <v>20</v>
       </c>
-      <c r="D16" s="2">
-        <v>2</v>
+      <c r="D16" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -901,7 +1091,7 @@
       <c r="C17" s="1">
         <v>24</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>1</v>
       </c>
     </row>
@@ -915,7 +1105,7 @@
       <c r="C18" s="1">
         <v>18.33333</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>1</v>
       </c>
     </row>
@@ -929,7 +1119,7 @@
       <c r="C19" s="1">
         <v>10.33333</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>1</v>
       </c>
     </row>
@@ -943,7 +1133,7 @@
       <c r="C20" s="1">
         <v>16</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>1</v>
       </c>
     </row>
@@ -957,7 +1147,7 @@
       <c r="C21" s="1">
         <v>5</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>1</v>
       </c>
     </row>
@@ -971,7 +1161,7 @@
       <c r="C22" s="1">
         <v>4</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>2</v>
       </c>
     </row>
@@ -985,7 +1175,7 @@
       <c r="C23" s="1">
         <v>11</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>1</v>
       </c>
     </row>
@@ -999,7 +1189,7 @@
       <c r="C24" s="1">
         <v>16.66667</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1013,7 +1203,7 @@
       <c r="C25" s="1">
         <v>24</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1027,7 +1217,7 @@
       <c r="C26" s="1">
         <v>1.6666669999999999</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1041,7 +1231,7 @@
       <c r="C27" s="1">
         <v>7</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1055,7 +1245,7 @@
       <c r="C28" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1069,7 +1259,7 @@
       <c r="C29" s="1">
         <v>3.3333330000000001</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1083,7 +1273,7 @@
       <c r="C30" s="1">
         <v>5.3333329999999997</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1097,7 +1287,7 @@
       <c r="C31" s="1">
         <v>1.3333330000000001</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1111,8 +1301,8 @@
       <c r="C32" s="1">
         <v>12</v>
       </c>
-      <c r="D32" s="2">
-        <v>2</v>
+      <c r="D32" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1125,7 +1315,7 @@
       <c r="C33" s="1">
         <v>24</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1139,7 +1329,7 @@
       <c r="C34" s="1">
         <v>20</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1153,7 +1343,7 @@
       <c r="C35" s="1">
         <v>5</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1167,8 +1357,8 @@
       <c r="C36" s="1">
         <v>20</v>
       </c>
-      <c r="D36" s="2">
-        <v>2</v>
+      <c r="D36" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1181,7 +1371,7 @@
       <c r="C37" s="1">
         <v>8</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1195,7 +1385,7 @@
       <c r="C38" s="1">
         <v>8</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1209,8 +1399,8 @@
       <c r="C39" s="1">
         <v>8</v>
       </c>
-      <c r="D39" s="2">
-        <v>2</v>
+      <c r="D39" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,7 +1413,7 @@
       <c r="C40" s="1">
         <v>5</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1237,8 +1427,8 @@
       <c r="C41" s="1">
         <v>4</v>
       </c>
-      <c r="D41" s="2">
-        <v>2</v>
+      <c r="D41" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1251,8 +1441,8 @@
       <c r="C42" s="1">
         <v>12</v>
       </c>
-      <c r="D42" s="2">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1265,8 +1455,8 @@
       <c r="C43" s="1">
         <v>6</v>
       </c>
-      <c r="D43" s="2">
-        <v>2</v>
+      <c r="D43" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1279,8 +1469,8 @@
       <c r="C44" s="1">
         <v>6</v>
       </c>
-      <c r="D44" s="2">
-        <v>2</v>
+      <c r="D44" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1293,8 +1483,8 @@
       <c r="C45" s="1">
         <v>8</v>
       </c>
-      <c r="D45" s="2">
-        <v>2</v>
+      <c r="D45" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1307,7 +1497,7 @@
       <c r="C46" s="1">
         <v>8</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1321,7 +1511,7 @@
       <c r="C47" s="1">
         <v>8</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1335,7 +1525,7 @@
       <c r="C48" s="1">
         <v>10</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1349,8 +1539,8 @@
       <c r="C49" s="1">
         <v>10</v>
       </c>
-      <c r="D49" s="2">
-        <v>5</v>
+      <c r="D49" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1363,8 +1553,8 @@
       <c r="C50" s="1">
         <v>10</v>
       </c>
-      <c r="D50" s="2">
-        <v>2</v>
+      <c r="D50" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1377,8 +1567,8 @@
       <c r="C51" s="1">
         <v>10</v>
       </c>
-      <c r="D51" s="2">
-        <v>5</v>
+      <c r="D51" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1391,8 +1581,8 @@
       <c r="C52" s="1">
         <v>8</v>
       </c>
-      <c r="D52" s="2">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1405,8 +1595,8 @@
       <c r="C53" s="1">
         <v>8</v>
       </c>
-      <c r="D53" s="2">
-        <v>2</v>
+      <c r="D53" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1419,7 +1609,7 @@
       <c r="C54" s="1">
         <v>8</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1433,7 +1623,7 @@
       <c r="C55" s="1">
         <v>8</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1447,7 +1637,7 @@
       <c r="C56" s="1">
         <v>6.3333329999999997</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1461,7 +1651,7 @@
       <c r="C57" s="1">
         <v>3</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1475,8 +1665,8 @@
       <c r="C58" s="1">
         <v>5</v>
       </c>
-      <c r="D58" s="2">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1489,7 +1679,7 @@
       <c r="C59" s="1">
         <v>5</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1503,8 +1693,8 @@
       <c r="C60" s="1">
         <v>5</v>
       </c>
-      <c r="D60" s="2">
-        <v>5</v>
+      <c r="D60" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1517,7 +1707,7 @@
       <c r="C61" s="1">
         <v>16</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1531,7 +1721,7 @@
       <c r="C62" s="1">
         <v>21.66667</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1545,7 +1735,7 @@
       <c r="C63" s="1">
         <v>10.66667</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1559,7 +1749,7 @@
       <c r="C64" s="1">
         <v>24</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1573,7 +1763,7 @@
       <c r="C65" s="1">
         <v>6</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1587,7 +1777,7 @@
       <c r="C66" s="1">
         <v>16</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1601,7 +1791,7 @@
       <c r="C67" s="1">
         <v>16</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1615,8 +1805,8 @@
       <c r="C68" s="1">
         <v>4</v>
       </c>
-      <c r="D68" s="2">
-        <v>5</v>
+      <c r="D68" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1629,7 +1819,7 @@
       <c r="C69" s="1">
         <v>12</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1643,8 +1833,8 @@
       <c r="C70" s="1">
         <v>12</v>
       </c>
-      <c r="D70" s="2">
-        <v>5</v>
+      <c r="D70" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1657,7 +1847,7 @@
       <c r="C71" s="1">
         <v>48.333329999999997</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1671,8 +1861,8 @@
       <c r="C72" s="1">
         <v>16</v>
       </c>
-      <c r="D72" s="2">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1685,8 +1875,8 @@
       <c r="C73" s="1">
         <v>8</v>
       </c>
-      <c r="D73" s="2">
-        <v>5</v>
+      <c r="D73" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1699,8 +1889,8 @@
       <c r="C74" s="1">
         <v>5</v>
       </c>
-      <c r="D74" s="2">
-        <v>5</v>
+      <c r="D74" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1713,8 +1903,8 @@
       <c r="C75" s="1">
         <v>8</v>
       </c>
-      <c r="D75" s="2">
-        <v>5</v>
+      <c r="D75" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1727,8 +1917,8 @@
       <c r="C76" s="1">
         <v>8</v>
       </c>
-      <c r="D76" s="2">
-        <v>5</v>
+      <c r="D76" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1741,8 +1931,8 @@
       <c r="C77" s="1">
         <v>8</v>
       </c>
-      <c r="D77" s="2">
-        <v>5</v>
+      <c r="D77" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1755,8 +1945,8 @@
       <c r="C78" s="1">
         <v>8</v>
       </c>
-      <c r="D78" s="2">
-        <v>5</v>
+      <c r="D78" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1769,8 +1959,8 @@
       <c r="C79" s="1">
         <v>8</v>
       </c>
-      <c r="D79" s="2">
-        <v>5</v>
+      <c r="D79" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1783,8 +1973,8 @@
       <c r="C80" s="1">
         <v>8</v>
       </c>
-      <c r="D80" s="2">
-        <v>5</v>
+      <c r="D80" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1797,8 +1987,8 @@
       <c r="C81" s="1">
         <v>8</v>
       </c>
-      <c r="D81" s="2">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1811,7 +2001,7 @@
       <c r="C82" s="1">
         <v>8</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1825,7 +2015,7 @@
       <c r="C83" s="1">
         <v>4.3333329999999997</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1839,7 +2029,7 @@
       <c r="C84" s="1">
         <v>4.3333329999999997</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1853,7 +2043,7 @@
       <c r="C85" s="1">
         <v>24</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1867,8 +2057,8 @@
       <c r="C86" s="1">
         <v>4</v>
       </c>
-      <c r="D86" s="2">
-        <v>5</v>
+      <c r="D86" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1881,8 +2071,8 @@
       <c r="C87" s="1">
         <v>4</v>
       </c>
-      <c r="D87" s="2">
-        <v>5</v>
+      <c r="D87" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1895,8 +2085,8 @@
       <c r="C88" s="1">
         <v>4</v>
       </c>
-      <c r="D88" s="2">
-        <v>5</v>
+      <c r="D88" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1909,8 +2099,8 @@
       <c r="C89" s="1">
         <v>4</v>
       </c>
-      <c r="D89" s="2">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1923,8 +2113,8 @@
       <c r="C90" s="1">
         <v>4</v>
       </c>
-      <c r="D90" s="2">
-        <v>5</v>
+      <c r="D90" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1937,8 +2127,8 @@
       <c r="C91" s="1">
         <v>4</v>
       </c>
-      <c r="D91" s="2">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1951,8 +2141,8 @@
       <c r="C92" s="1">
         <v>4</v>
       </c>
-      <c r="D92" s="2">
-        <v>5</v>
+      <c r="D92" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1965,8 +2155,8 @@
       <c r="C93" s="1">
         <v>4</v>
       </c>
-      <c r="D93" s="2">
-        <v>5</v>
+      <c r="D93" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1979,8 +2169,8 @@
       <c r="C94" s="1">
         <v>4</v>
       </c>
-      <c r="D94" s="2">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1993,8 +2183,8 @@
       <c r="C95" s="1">
         <v>8</v>
       </c>
-      <c r="D95" s="2">
-        <v>5</v>
+      <c r="D95" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2007,8 +2197,8 @@
       <c r="C96" s="1">
         <v>4</v>
       </c>
-      <c r="D96" s="2">
-        <v>5</v>
+      <c r="D96" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2021,7 +2211,7 @@
       <c r="C97" s="1">
         <v>1</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2035,7 +2225,7 @@
       <c r="C98" s="1">
         <v>5</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2049,8 +2239,8 @@
       <c r="C99" s="1">
         <v>12</v>
       </c>
-      <c r="D99" s="2">
-        <v>5</v>
+      <c r="D99" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2063,8 +2253,8 @@
       <c r="C100" s="1">
         <v>12</v>
       </c>
-      <c r="D100" s="2">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2077,8 +2267,8 @@
       <c r="C101" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D101" s="2">
-        <v>5</v>
+      <c r="D101" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2091,8 +2281,8 @@
       <c r="C102" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D102" s="2">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2105,8 +2295,8 @@
       <c r="C103" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D103" s="2">
-        <v>5</v>
+      <c r="D103" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2119,8 +2309,8 @@
       <c r="C104" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D104" s="2">
-        <v>5</v>
+      <c r="D104" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2133,8 +2323,8 @@
       <c r="C105" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D105" s="2">
-        <v>5</v>
+      <c r="D105" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2147,8 +2337,8 @@
       <c r="C106" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D106" s="2">
-        <v>5</v>
+      <c r="D106" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2161,8 +2351,8 @@
       <c r="C107" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D107" s="2">
-        <v>5</v>
+      <c r="D107" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2175,7 +2365,7 @@
       <c r="C108" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2189,8 +2379,8 @@
       <c r="C109" s="1">
         <v>2</v>
       </c>
-      <c r="D109" s="2">
-        <v>5</v>
+      <c r="D109" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2203,8 +2393,8 @@
       <c r="C110" s="1">
         <v>2</v>
       </c>
-      <c r="D110" s="2">
-        <v>5</v>
+      <c r="D110" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2217,8 +2407,8 @@
       <c r="C111" s="1">
         <v>2</v>
       </c>
-      <c r="D111" s="2">
-        <v>5</v>
+      <c r="D111" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2231,8 +2421,8 @@
       <c r="C112" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D112" s="2">
-        <v>5</v>
+      <c r="D112" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2245,8 +2435,8 @@
       <c r="C113" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D113" s="2">
-        <v>5</v>
+      <c r="D113" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2259,8 +2449,8 @@
       <c r="C114" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D114" s="2">
-        <v>5</v>
+      <c r="D114" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2273,8 +2463,8 @@
       <c r="C115" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D115" s="2">
-        <v>5</v>
+      <c r="D115" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2287,8 +2477,8 @@
       <c r="C116" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D116" s="2">
-        <v>5</v>
+      <c r="D116" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2301,8 +2491,8 @@
       <c r="C117" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D117" s="2">
-        <v>5</v>
+      <c r="D117" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2315,8 +2505,8 @@
       <c r="C118" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D118" s="2">
-        <v>5</v>
+      <c r="D118" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2329,8 +2519,8 @@
       <c r="C119" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D119" s="2">
-        <v>5</v>
+      <c r="D119" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2343,8 +2533,8 @@
       <c r="C120" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D120" s="2">
-        <v>5</v>
+      <c r="D120" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2357,8 +2547,8 @@
       <c r="C121" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D121" s="2">
-        <v>5</v>
+      <c r="D121" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2371,8 +2561,8 @@
       <c r="C122" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D122" s="2">
-        <v>5</v>
+      <c r="D122" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2385,8 +2575,8 @@
       <c r="C123" s="1">
         <v>16</v>
       </c>
-      <c r="D123" s="2">
-        <v>2</v>
+      <c r="D123" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2399,8 +2589,8 @@
       <c r="C124" s="1">
         <v>8</v>
       </c>
-      <c r="D124" s="2">
-        <v>2</v>
+      <c r="D124" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2413,8 +2603,8 @@
       <c r="C125" s="1">
         <v>16</v>
       </c>
-      <c r="D125" s="2">
-        <v>2</v>
+      <c r="D125" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2427,7 +2617,7 @@
       <c r="C126" s="1">
         <v>8</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2441,8 +2631,8 @@
       <c r="C127" s="1">
         <v>8</v>
       </c>
-      <c r="D127" s="2">
-        <v>5</v>
+      <c r="D127" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2455,8 +2645,8 @@
       <c r="C128" s="1">
         <v>8</v>
       </c>
-      <c r="D128" s="2">
-        <v>5</v>
+      <c r="D128" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2469,8 +2659,8 @@
       <c r="C129" s="1">
         <v>8</v>
       </c>
-      <c r="D129" s="2">
-        <v>5</v>
+      <c r="D129" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2483,8 +2673,8 @@
       <c r="C130" s="1">
         <v>8</v>
       </c>
-      <c r="D130" s="2">
-        <v>5</v>
+      <c r="D130" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2497,8 +2687,8 @@
       <c r="C131" s="1">
         <v>8</v>
       </c>
-      <c r="D131" s="2">
-        <v>5</v>
+      <c r="D131" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2511,8 +2701,8 @@
       <c r="C132" s="1">
         <v>8</v>
       </c>
-      <c r="D132" s="2">
-        <v>5</v>
+      <c r="D132" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2525,7 +2715,7 @@
       <c r="C133" s="1">
         <v>8</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2539,8 +2729,8 @@
       <c r="C134" s="1">
         <v>8</v>
       </c>
-      <c r="D134" s="2">
-        <v>2</v>
+      <c r="D134" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2553,7 +2743,7 @@
       <c r="C135" s="1">
         <v>8</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2567,8 +2757,8 @@
       <c r="C136" s="1">
         <v>6</v>
       </c>
-      <c r="D136" s="2">
-        <v>5</v>
+      <c r="D136" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2581,8 +2771,8 @@
       <c r="C137" s="1">
         <v>6</v>
       </c>
-      <c r="D137" s="2">
-        <v>5</v>
+      <c r="D137" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2595,8 +2785,8 @@
       <c r="C138" s="1">
         <v>6</v>
       </c>
-      <c r="D138" s="2">
-        <v>5</v>
+      <c r="D138" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2609,7 +2799,7 @@
       <c r="C139" s="1">
         <v>6</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2623,8 +2813,8 @@
       <c r="C140" s="1">
         <v>4</v>
       </c>
-      <c r="D140" s="2">
-        <v>2</v>
+      <c r="D140" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2637,7 +2827,7 @@
       <c r="C141" s="1">
         <v>4</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2651,8 +2841,8 @@
       <c r="C142" s="1">
         <v>6</v>
       </c>
-      <c r="D142" s="2">
-        <v>5</v>
+      <c r="D142" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2665,8 +2855,8 @@
       <c r="C143" s="1">
         <v>6</v>
       </c>
-      <c r="D143" s="2">
-        <v>5</v>
+      <c r="D143" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2679,8 +2869,8 @@
       <c r="C144" s="1">
         <v>6</v>
       </c>
-      <c r="D144" s="2">
-        <v>5</v>
+      <c r="D144" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2693,8 +2883,8 @@
       <c r="C145" s="1">
         <v>6</v>
       </c>
-      <c r="D145" s="2">
-        <v>5</v>
+      <c r="D145" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2707,8 +2897,8 @@
       <c r="C146" s="1">
         <v>6</v>
       </c>
-      <c r="D146" s="2">
-        <v>5</v>
+      <c r="D146" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2721,8 +2911,8 @@
       <c r="C147" s="1">
         <v>6</v>
       </c>
-      <c r="D147" s="2">
-        <v>5</v>
+      <c r="D147" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2735,8 +2925,8 @@
       <c r="C148" s="1">
         <v>22.33333</v>
       </c>
-      <c r="D148" s="2">
-        <v>2</v>
+      <c r="D148" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -2749,8 +2939,8 @@
       <c r="C149" s="1">
         <v>19.33333</v>
       </c>
-      <c r="D149" s="2">
-        <v>2</v>
+      <c r="D149" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -2763,8 +2953,8 @@
       <c r="C150" s="1">
         <v>16.66667</v>
       </c>
-      <c r="D150" s="2">
-        <v>2</v>
+      <c r="D150" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -2777,8 +2967,8 @@
       <c r="C151" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D151" s="2">
-        <v>5</v>
+      <c r="D151" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -2791,8 +2981,8 @@
       <c r="C152" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D152" s="2">
-        <v>5</v>
+      <c r="D152" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -2805,8 +2995,8 @@
       <c r="C153" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D153" s="2">
-        <v>5</v>
+      <c r="D153" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -2819,7 +3009,7 @@
       <c r="C154" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2833,8 +3023,8 @@
       <c r="C155" s="1">
         <v>16</v>
       </c>
-      <c r="D155" s="2">
-        <v>2</v>
+      <c r="D155" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -2847,8 +3037,8 @@
       <c r="C156" s="1">
         <v>16</v>
       </c>
-      <c r="D156" s="2">
-        <v>2</v>
+      <c r="D156" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -2861,7 +3051,7 @@
       <c r="C157" s="1">
         <v>16</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2875,8 +3065,8 @@
       <c r="C158" s="1">
         <v>16</v>
       </c>
-      <c r="D158" s="2">
-        <v>2</v>
+      <c r="D158" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -2889,7 +3079,7 @@
       <c r="C159" s="1">
         <v>1</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2903,7 +3093,7 @@
       <c r="C160" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2917,7 +3107,7 @@
       <c r="C161" s="1">
         <v>4</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2931,7 +3121,7 @@
       <c r="C162" s="1">
         <v>1.6666669999999999</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2945,7 +3135,7 @@
       <c r="C163" s="1">
         <v>24</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2959,8 +3149,8 @@
       <c r="C164" s="1">
         <v>6</v>
       </c>
-      <c r="D164" s="2">
-        <v>2</v>
+      <c r="D164" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -2973,8 +3163,8 @@
       <c r="C165" s="1">
         <v>6</v>
       </c>
-      <c r="D165" s="2">
-        <v>5</v>
+      <c r="D165" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -2987,7 +3177,7 @@
       <c r="C166" s="1">
         <v>32</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D166" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3001,7 +3191,7 @@
       <c r="C167" s="1">
         <v>12</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3015,8 +3205,8 @@
       <c r="C168" s="1">
         <v>12</v>
       </c>
-      <c r="D168" s="2">
-        <v>5</v>
+      <c r="D168" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3029,8 +3219,8 @@
       <c r="C169" s="1">
         <v>4</v>
       </c>
-      <c r="D169" s="2">
-        <v>5</v>
+      <c r="D169" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3043,8 +3233,8 @@
       <c r="C170" s="1">
         <v>3</v>
       </c>
-      <c r="D170" s="2">
-        <v>2</v>
+      <c r="D170" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3057,7 +3247,7 @@
       <c r="C171" s="1">
         <v>0.66666700000000001</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3071,8 +3261,8 @@
       <c r="C172" s="1">
         <v>4</v>
       </c>
-      <c r="D172" s="2">
-        <v>5</v>
+      <c r="D172" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3085,8 +3275,8 @@
       <c r="C173" s="1">
         <v>4</v>
       </c>
-      <c r="D173" s="2">
-        <v>2</v>
+      <c r="D173" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3095,11 +3285,1836 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3060E41-E7A5-41FD-97F7-B840A72C1BAA}">
+  <dimension ref="A1:D109"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>77</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>103</v>
+      </c>
+      <c r="B3" s="5">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>165</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>367</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>479</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>523</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>9.6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>631</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>719</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>720</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>732</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>781</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>782</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>783</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>784</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>785</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>786</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>787</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>789</v>
+      </c>
+      <c r="B19" s="5">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>790</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>791</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>792</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>793</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>794</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>795</v>
+      </c>
+      <c r="B25" s="5">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>796</v>
+      </c>
+      <c r="B26" s="4">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4">
+        <v>6</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>797</v>
+      </c>
+      <c r="B27" s="5">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>798</v>
+      </c>
+      <c r="B28" s="4">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4">
+        <v>6</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>799</v>
+      </c>
+      <c r="B29" s="5">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>800</v>
+      </c>
+      <c r="B30" s="4">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>801</v>
+      </c>
+      <c r="B31" s="5">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>802</v>
+      </c>
+      <c r="B32" s="4">
+        <v>3</v>
+      </c>
+      <c r="C32" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>852</v>
+      </c>
+      <c r="B33" s="5">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5">
+        <v>3</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>853</v>
+      </c>
+      <c r="B34" s="4">
+        <v>6</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3</v>
+      </c>
+      <c r="D34" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>857</v>
+      </c>
+      <c r="B35" s="5">
+        <v>6</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>953</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B37" s="5">
+        <v>6</v>
+      </c>
+      <c r="C37" s="5">
+        <v>14.4</v>
+      </c>
+      <c r="D37" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>1107</v>
+      </c>
+      <c r="B38" s="4">
+        <v>6</v>
+      </c>
+      <c r="C38" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="D38" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>1108</v>
+      </c>
+      <c r="B39" s="5">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5">
+        <v>9.6</v>
+      </c>
+      <c r="D39" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>1109</v>
+      </c>
+      <c r="B40" s="4">
+        <v>3</v>
+      </c>
+      <c r="C40" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>1110</v>
+      </c>
+      <c r="B41" s="5">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D41" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>1111</v>
+      </c>
+      <c r="B42" s="4">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="D42" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>1112</v>
+      </c>
+      <c r="B43" s="5">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>1456</v>
+      </c>
+      <c r="B44" s="4">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>1492</v>
+      </c>
+      <c r="B45" s="5">
+        <v>6</v>
+      </c>
+      <c r="C45" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="D45" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>1511</v>
+      </c>
+      <c r="B46" s="4">
+        <v>6</v>
+      </c>
+      <c r="C46" s="4">
+        <v>3</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>1512</v>
+      </c>
+      <c r="B47" s="5">
+        <v>6</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="D47" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>1513</v>
+      </c>
+      <c r="B48" s="4">
+        <v>6</v>
+      </c>
+      <c r="C48" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>1514</v>
+      </c>
+      <c r="B49" s="5">
+        <v>6</v>
+      </c>
+      <c r="C49" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="D49" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>1515</v>
+      </c>
+      <c r="B50" s="4">
+        <v>6</v>
+      </c>
+      <c r="C50" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D50" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>1517</v>
+      </c>
+      <c r="B51" s="5">
+        <v>6</v>
+      </c>
+      <c r="C51" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="D51" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>1518</v>
+      </c>
+      <c r="B52" s="4">
+        <v>6</v>
+      </c>
+      <c r="C52" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D52" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>1519</v>
+      </c>
+      <c r="B53" s="5">
+        <v>6</v>
+      </c>
+      <c r="C53" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>1835</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>1922</v>
+      </c>
+      <c r="B55" s="5">
+        <v>3</v>
+      </c>
+      <c r="C55" s="5">
+        <v>14.4</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>1943</v>
+      </c>
+      <c r="B56" s="4">
+        <v>6</v>
+      </c>
+      <c r="C56" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>1948</v>
+      </c>
+      <c r="B57" s="5">
+        <v>6</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D57" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>1949</v>
+      </c>
+      <c r="B58" s="4">
+        <v>6</v>
+      </c>
+      <c r="C58" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="D58" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>1950</v>
+      </c>
+      <c r="B59" s="5">
+        <v>6</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D59" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>1951</v>
+      </c>
+      <c r="B60" s="4">
+        <v>6</v>
+      </c>
+      <c r="C60" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="D60" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>1952</v>
+      </c>
+      <c r="B61" s="5">
+        <v>6</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D61" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>1953</v>
+      </c>
+      <c r="B62" s="4">
+        <v>6</v>
+      </c>
+      <c r="C62" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>1954</v>
+      </c>
+      <c r="B63" s="5">
+        <v>6</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D63" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>1955</v>
+      </c>
+      <c r="B64" s="4">
+        <v>6</v>
+      </c>
+      <c r="C64" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="D64" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>2263</v>
+      </c>
+      <c r="B65" s="5">
+        <v>6</v>
+      </c>
+      <c r="C65" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="D65" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>2428</v>
+      </c>
+      <c r="B66" s="4">
+        <v>6</v>
+      </c>
+      <c r="C66" s="4">
+        <v>3</v>
+      </c>
+      <c r="D66" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>2507</v>
+      </c>
+      <c r="B67" s="5">
+        <v>6</v>
+      </c>
+      <c r="C67" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="D67" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>2508</v>
+      </c>
+      <c r="B68" s="4">
+        <v>6</v>
+      </c>
+      <c r="C68" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>4192</v>
+      </c>
+      <c r="B69" s="5">
+        <v>3</v>
+      </c>
+      <c r="C69" s="5">
+        <v>9.6</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>4193</v>
+      </c>
+      <c r="B70" s="4">
+        <v>3</v>
+      </c>
+      <c r="C70" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>4194</v>
+      </c>
+      <c r="B71" s="5">
+        <v>3</v>
+      </c>
+      <c r="C71" s="5">
+        <v>9.6</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>4251</v>
+      </c>
+      <c r="B72" s="4">
+        <v>6</v>
+      </c>
+      <c r="C72" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D72" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>4252</v>
+      </c>
+      <c r="B73" s="5">
+        <v>6</v>
+      </c>
+      <c r="C73" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="D73" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>4254</v>
+      </c>
+      <c r="B74" s="4">
+        <v>6</v>
+      </c>
+      <c r="C74" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D74" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>4255</v>
+      </c>
+      <c r="B75" s="5">
+        <v>6</v>
+      </c>
+      <c r="C75" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="D75" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>4256</v>
+      </c>
+      <c r="B76" s="4">
+        <v>6</v>
+      </c>
+      <c r="C76" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D76" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>4257</v>
+      </c>
+      <c r="B77" s="5">
+        <v>6</v>
+      </c>
+      <c r="C77" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="D77" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>4258</v>
+      </c>
+      <c r="B78" s="4">
+        <v>6</v>
+      </c>
+      <c r="C78" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D78" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>4259</v>
+      </c>
+      <c r="B79" s="5">
+        <v>3</v>
+      </c>
+      <c r="C79" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="D79" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>4272</v>
+      </c>
+      <c r="B80" s="4">
+        <v>3</v>
+      </c>
+      <c r="C80" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D80" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>8264</v>
+      </c>
+      <c r="B81" s="5">
+        <v>1</v>
+      </c>
+      <c r="C81" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>8847</v>
+      </c>
+      <c r="B82" s="4">
+        <v>6</v>
+      </c>
+      <c r="C82" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="D82" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>8848</v>
+      </c>
+      <c r="B83" s="5">
+        <v>6</v>
+      </c>
+      <c r="C83" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="D83" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>8851</v>
+      </c>
+      <c r="B84" s="4">
+        <v>6</v>
+      </c>
+      <c r="C84" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="D84" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>8852</v>
+      </c>
+      <c r="B85" s="5">
+        <v>6</v>
+      </c>
+      <c r="C85" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="D85" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>8857</v>
+      </c>
+      <c r="B86" s="4">
+        <v>3</v>
+      </c>
+      <c r="C86" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="D86" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>8858</v>
+      </c>
+      <c r="B87" s="5">
+        <v>3</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D87" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>8861</v>
+      </c>
+      <c r="B88" s="4">
+        <v>6</v>
+      </c>
+      <c r="C88" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="D88" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>8862</v>
+      </c>
+      <c r="B89" s="5">
+        <v>6</v>
+      </c>
+      <c r="C89" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="D89" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>8863</v>
+      </c>
+      <c r="B90" s="4">
+        <v>6</v>
+      </c>
+      <c r="C90" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="D90" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>8865</v>
+      </c>
+      <c r="B91" s="5">
+        <v>6</v>
+      </c>
+      <c r="C91" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="D91" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>8931</v>
+      </c>
+      <c r="B92" s="4">
+        <v>6</v>
+      </c>
+      <c r="C92" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="D92" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>8932</v>
+      </c>
+      <c r="B93" s="5">
+        <v>6</v>
+      </c>
+      <c r="C93" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="D93" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>9161</v>
+      </c>
+      <c r="B94" s="4">
+        <v>3</v>
+      </c>
+      <c r="C94" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>9162</v>
+      </c>
+      <c r="B95" s="5">
+        <v>3</v>
+      </c>
+      <c r="C95" s="5">
+        <v>9.6</v>
+      </c>
+      <c r="D95" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>9163</v>
+      </c>
+      <c r="B96" s="4">
+        <v>3</v>
+      </c>
+      <c r="C96" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="D96" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <v>9164</v>
+      </c>
+      <c r="B97" s="5">
+        <v>3</v>
+      </c>
+      <c r="C97" s="5">
+        <v>9.6</v>
+      </c>
+      <c r="D97" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>9841</v>
+      </c>
+      <c r="B98" s="4">
+        <v>3</v>
+      </c>
+      <c r="C98" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="D98" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
+        <v>11471</v>
+      </c>
+      <c r="B99" s="5">
+        <v>4</v>
+      </c>
+      <c r="C99" s="5">
+        <v>14.4</v>
+      </c>
+      <c r="D99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>13121</v>
+      </c>
+      <c r="B100" s="4">
+        <v>3</v>
+      </c>
+      <c r="C100" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>13151</v>
+      </c>
+      <c r="B101" s="5">
+        <v>6</v>
+      </c>
+      <c r="C101" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="D101" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>13335</v>
+      </c>
+      <c r="B102" s="4">
+        <v>1</v>
+      </c>
+      <c r="C102" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>13472</v>
+      </c>
+      <c r="B103" s="5">
+        <v>1</v>
+      </c>
+      <c r="C103" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="D103" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>13491</v>
+      </c>
+      <c r="B104" s="4">
+        <v>6</v>
+      </c>
+      <c r="C104" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="D104" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
+        <v>13492</v>
+      </c>
+      <c r="B105" s="5">
+        <v>6</v>
+      </c>
+      <c r="C105" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D105" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>13723</v>
+      </c>
+      <c r="B106" s="4">
+        <v>3</v>
+      </c>
+      <c r="C106" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
+        <v>15342</v>
+      </c>
+      <c r="B107" s="5">
+        <v>6</v>
+      </c>
+      <c r="C107" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D107" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>15343</v>
+      </c>
+      <c r="B108" s="4">
+        <v>3</v>
+      </c>
+      <c r="C108" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD783050-EDB5-4AA1-B656-595D1DCBADC5}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="8">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="8">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="8">
+        <v>3</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC05F44C-58EE-43C2-B351-6A8EB9E80087}">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D173"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3107,7 +5122,7 @@
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3134,7 +5149,7 @@
       <c r="C2" s="1">
         <v>2.33</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3148,7 +5163,7 @@
       <c r="C3" s="1">
         <v>24</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
     </row>
@@ -3162,7 +5177,7 @@
       <c r="C4" s="1">
         <v>1.67</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3176,8 +5191,8 @@
       <c r="C5" s="1">
         <v>20</v>
       </c>
-      <c r="D5" s="2">
-        <v>5</v>
+      <c r="D5" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3190,8 +5205,8 @@
       <c r="C6" s="1">
         <v>20</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
+      <c r="D6" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3204,7 +5219,7 @@
       <c r="C7" s="1">
         <v>6.67</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3218,8 +5233,8 @@
       <c r="C8" s="1">
         <v>20</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
+      <c r="D8" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3232,7 +5247,7 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3246,7 +5261,7 @@
       <c r="C10" s="1">
         <v>6</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3260,7 +5275,7 @@
       <c r="C11" s="1">
         <v>6.67</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3274,7 +5289,7 @@
       <c r="C12" s="1">
         <v>3.33</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3288,7 +5303,7 @@
       <c r="C13" s="1">
         <v>6.67</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3302,7 +5317,7 @@
       <c r="C14" s="1">
         <v>4.67</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3316,7 +5331,7 @@
       <c r="C15" s="1">
         <v>6.33</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3330,8 +5345,8 @@
       <c r="C16" s="1">
         <v>20</v>
       </c>
-      <c r="D16" s="2">
-        <v>2</v>
+      <c r="D16" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3344,7 +5359,7 @@
       <c r="C17" s="1">
         <v>24</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3358,7 +5373,7 @@
       <c r="C18" s="1">
         <v>18.329999999999998</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3372,7 +5387,7 @@
       <c r="C19" s="1">
         <v>10.33</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3386,7 +5401,7 @@
       <c r="C20" s="1">
         <v>16</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3400,7 +5415,7 @@
       <c r="C21" s="1">
         <v>5</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3414,7 +5429,7 @@
       <c r="C22" s="1">
         <v>4</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>2</v>
       </c>
     </row>
@@ -3428,7 +5443,7 @@
       <c r="C23" s="1">
         <v>11</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3442,7 +5457,7 @@
       <c r="C24" s="1">
         <v>16.670000000000002</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3456,7 +5471,7 @@
       <c r="C25" s="1">
         <v>24</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>2</v>
       </c>
     </row>
@@ -3470,7 +5485,7 @@
       <c r="C26" s="1">
         <v>1.67</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3484,7 +5499,7 @@
       <c r="C27" s="1">
         <v>7</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3498,7 +5513,7 @@
       <c r="C28" s="1">
         <v>0.33</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3512,7 +5527,7 @@
       <c r="C29" s="1">
         <v>3.33</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3526,7 +5541,7 @@
       <c r="C30" s="1">
         <v>5.33</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3540,7 +5555,7 @@
       <c r="C31" s="1">
         <v>1.33</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3554,8 +5569,8 @@
       <c r="C32" s="1">
         <v>12</v>
       </c>
-      <c r="D32" s="2">
-        <v>2</v>
+      <c r="D32" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3568,7 +5583,7 @@
       <c r="C33" s="1">
         <v>24</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="3">
         <v>2</v>
       </c>
     </row>
@@ -3582,7 +5597,7 @@
       <c r="C34" s="1">
         <v>20</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="3">
         <v>2</v>
       </c>
     </row>
@@ -3596,7 +5611,7 @@
       <c r="C35" s="1">
         <v>5</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="3">
         <v>2</v>
       </c>
     </row>
@@ -3610,8 +5625,8 @@
       <c r="C36" s="1">
         <v>20</v>
       </c>
-      <c r="D36" s="2">
-        <v>2</v>
+      <c r="D36" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3624,7 +5639,7 @@
       <c r="C37" s="1">
         <v>8</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <v>2</v>
       </c>
     </row>
@@ -3638,7 +5653,7 @@
       <c r="C38" s="1">
         <v>8</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <v>2</v>
       </c>
     </row>
@@ -3652,8 +5667,8 @@
       <c r="C39" s="1">
         <v>8</v>
       </c>
-      <c r="D39" s="2">
-        <v>2</v>
+      <c r="D39" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3666,7 +5681,7 @@
       <c r="C40" s="1">
         <v>5</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <v>2</v>
       </c>
     </row>
@@ -3680,8 +5695,8 @@
       <c r="C41" s="1">
         <v>4</v>
       </c>
-      <c r="D41" s="2">
-        <v>2</v>
+      <c r="D41" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3694,8 +5709,8 @@
       <c r="C42" s="1">
         <v>12</v>
       </c>
-      <c r="D42" s="2">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3708,8 +5723,8 @@
       <c r="C43" s="1">
         <v>6</v>
       </c>
-      <c r="D43" s="2">
-        <v>2</v>
+      <c r="D43" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3722,8 +5737,8 @@
       <c r="C44" s="1">
         <v>6</v>
       </c>
-      <c r="D44" s="2">
-        <v>2</v>
+      <c r="D44" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3736,8 +5751,8 @@
       <c r="C45" s="1">
         <v>8</v>
       </c>
-      <c r="D45" s="2">
-        <v>2</v>
+      <c r="D45" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3750,7 +5765,7 @@
       <c r="C46" s="1">
         <v>8</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="3">
         <v>2</v>
       </c>
     </row>
@@ -3764,7 +5779,7 @@
       <c r="C47" s="1">
         <v>8</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="3">
         <v>2</v>
       </c>
     </row>
@@ -3778,7 +5793,7 @@
       <c r="C48" s="1">
         <v>10</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="3">
         <v>2</v>
       </c>
     </row>
@@ -3792,8 +5807,8 @@
       <c r="C49" s="1">
         <v>10</v>
       </c>
-      <c r="D49" s="2">
-        <v>5</v>
+      <c r="D49" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3806,8 +5821,8 @@
       <c r="C50" s="1">
         <v>10</v>
       </c>
-      <c r="D50" s="2">
-        <v>2</v>
+      <c r="D50" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3820,8 +5835,8 @@
       <c r="C51" s="1">
         <v>10</v>
       </c>
-      <c r="D51" s="2">
-        <v>5</v>
+      <c r="D51" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3834,8 +5849,8 @@
       <c r="C52" s="1">
         <v>8</v>
       </c>
-      <c r="D52" s="2">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3848,8 +5863,8 @@
       <c r="C53" s="1">
         <v>8</v>
       </c>
-      <c r="D53" s="2">
-        <v>2</v>
+      <c r="D53" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3862,7 +5877,7 @@
       <c r="C54" s="1">
         <v>8</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="3">
         <v>2</v>
       </c>
     </row>
@@ -3876,7 +5891,7 @@
       <c r="C55" s="1">
         <v>8</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="3">
         <v>2</v>
       </c>
     </row>
@@ -3890,7 +5905,7 @@
       <c r="C56" s="1">
         <v>6.33</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3904,7 +5919,7 @@
       <c r="C57" s="1">
         <v>3</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3918,8 +5933,8 @@
       <c r="C58" s="1">
         <v>5</v>
       </c>
-      <c r="D58" s="2">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3932,7 +5947,7 @@
       <c r="C59" s="1">
         <v>5</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="3">
         <v>5</v>
       </c>
     </row>
@@ -3946,8 +5961,8 @@
       <c r="C60" s="1">
         <v>5</v>
       </c>
-      <c r="D60" s="2">
-        <v>5</v>
+      <c r="D60" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3960,7 +5975,7 @@
       <c r="C61" s="1">
         <v>16</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3974,7 +5989,7 @@
       <c r="C62" s="1">
         <v>21.67</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3988,7 +6003,7 @@
       <c r="C63" s="1">
         <v>10.67</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4002,7 +6017,7 @@
       <c r="C64" s="1">
         <v>24</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="3">
         <v>5</v>
       </c>
     </row>
@@ -4016,7 +6031,7 @@
       <c r="C65" s="1">
         <v>6</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="3">
         <v>5</v>
       </c>
     </row>
@@ -4030,7 +6045,7 @@
       <c r="C66" s="1">
         <v>16</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="3">
         <v>5</v>
       </c>
     </row>
@@ -4044,7 +6059,7 @@
       <c r="C67" s="1">
         <v>16</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="3">
         <v>2</v>
       </c>
     </row>
@@ -4058,8 +6073,8 @@
       <c r="C68" s="1">
         <v>4</v>
       </c>
-      <c r="D68" s="2">
-        <v>5</v>
+      <c r="D68" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4072,7 +6087,7 @@
       <c r="C69" s="1">
         <v>12</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="3">
         <v>5</v>
       </c>
     </row>
@@ -4086,8 +6101,8 @@
       <c r="C70" s="1">
         <v>12</v>
       </c>
-      <c r="D70" s="2">
-        <v>5</v>
+      <c r="D70" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4100,7 +6115,7 @@
       <c r="C71" s="1">
         <v>48.33</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4114,8 +6129,8 @@
       <c r="C72" s="1">
         <v>16</v>
       </c>
-      <c r="D72" s="2">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4128,8 +6143,8 @@
       <c r="C73" s="1">
         <v>8</v>
       </c>
-      <c r="D73" s="2">
-        <v>5</v>
+      <c r="D73" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4142,8 +6157,8 @@
       <c r="C74" s="1">
         <v>5</v>
       </c>
-      <c r="D74" s="2">
-        <v>5</v>
+      <c r="D74" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4156,8 +6171,8 @@
       <c r="C75" s="1">
         <v>8</v>
       </c>
-      <c r="D75" s="2">
-        <v>5</v>
+      <c r="D75" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -4170,8 +6185,8 @@
       <c r="C76" s="1">
         <v>8</v>
       </c>
-      <c r="D76" s="2">
-        <v>5</v>
+      <c r="D76" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4184,8 +6199,8 @@
       <c r="C77" s="1">
         <v>8</v>
       </c>
-      <c r="D77" s="2">
-        <v>5</v>
+      <c r="D77" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4198,8 +6213,8 @@
       <c r="C78" s="1">
         <v>8</v>
       </c>
-      <c r="D78" s="2">
-        <v>5</v>
+      <c r="D78" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -4212,8 +6227,8 @@
       <c r="C79" s="1">
         <v>8</v>
       </c>
-      <c r="D79" s="2">
-        <v>5</v>
+      <c r="D79" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4226,8 +6241,8 @@
       <c r="C80" s="1">
         <v>8</v>
       </c>
-      <c r="D80" s="2">
-        <v>5</v>
+      <c r="D80" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -4240,8 +6255,8 @@
       <c r="C81" s="1">
         <v>8</v>
       </c>
-      <c r="D81" s="2">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4254,7 +6269,7 @@
       <c r="C82" s="1">
         <v>8</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4268,7 +6283,7 @@
       <c r="C83" s="1">
         <v>4.33</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4282,7 +6297,7 @@
       <c r="C84" s="1">
         <v>4.33</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4296,7 +6311,7 @@
       <c r="C85" s="1">
         <v>24</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="3">
         <v>2</v>
       </c>
     </row>
@@ -4310,8 +6325,8 @@
       <c r="C86" s="1">
         <v>4</v>
       </c>
-      <c r="D86" s="2">
-        <v>5</v>
+      <c r="D86" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4324,8 +6339,8 @@
       <c r="C87" s="1">
         <v>4</v>
       </c>
-      <c r="D87" s="2">
-        <v>5</v>
+      <c r="D87" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4338,8 +6353,8 @@
       <c r="C88" s="1">
         <v>4</v>
       </c>
-      <c r="D88" s="2">
-        <v>5</v>
+      <c r="D88" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4352,8 +6367,8 @@
       <c r="C89" s="1">
         <v>4</v>
       </c>
-      <c r="D89" s="2">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -4366,8 +6381,8 @@
       <c r="C90" s="1">
         <v>4</v>
       </c>
-      <c r="D90" s="2">
-        <v>5</v>
+      <c r="D90" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -4380,8 +6395,8 @@
       <c r="C91" s="1">
         <v>4</v>
       </c>
-      <c r="D91" s="2">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -4394,8 +6409,8 @@
       <c r="C92" s="1">
         <v>4</v>
       </c>
-      <c r="D92" s="2">
-        <v>5</v>
+      <c r="D92" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -4408,8 +6423,8 @@
       <c r="C93" s="1">
         <v>4</v>
       </c>
-      <c r="D93" s="2">
-        <v>5</v>
+      <c r="D93" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4422,8 +6437,8 @@
       <c r="C94" s="1">
         <v>4</v>
       </c>
-      <c r="D94" s="2">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4436,8 +6451,8 @@
       <c r="C95" s="1">
         <v>8</v>
       </c>
-      <c r="D95" s="2">
-        <v>5</v>
+      <c r="D95" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4450,8 +6465,8 @@
       <c r="C96" s="1">
         <v>4</v>
       </c>
-      <c r="D96" s="2">
-        <v>5</v>
+      <c r="D96" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4464,7 +6479,7 @@
       <c r="C97" s="1">
         <v>1</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4478,7 +6493,7 @@
       <c r="C98" s="1">
         <v>5</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="3">
         <v>5</v>
       </c>
     </row>
@@ -4492,8 +6507,8 @@
       <c r="C99" s="1">
         <v>12</v>
       </c>
-      <c r="D99" s="2">
-        <v>5</v>
+      <c r="D99" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4506,8 +6521,8 @@
       <c r="C100" s="1">
         <v>12</v>
       </c>
-      <c r="D100" s="2">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4520,8 +6535,8 @@
       <c r="C101" s="1">
         <v>0.33</v>
       </c>
-      <c r="D101" s="2">
-        <v>5</v>
+      <c r="D101" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4534,8 +6549,8 @@
       <c r="C102" s="1">
         <v>0.33</v>
       </c>
-      <c r="D102" s="2">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4548,8 +6563,8 @@
       <c r="C103" s="1">
         <v>0.33</v>
       </c>
-      <c r="D103" s="2">
-        <v>5</v>
+      <c r="D103" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4562,8 +6577,8 @@
       <c r="C104" s="1">
         <v>0.33</v>
       </c>
-      <c r="D104" s="2">
-        <v>5</v>
+      <c r="D104" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -4576,8 +6591,8 @@
       <c r="C105" s="1">
         <v>0.33</v>
       </c>
-      <c r="D105" s="2">
-        <v>5</v>
+      <c r="D105" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4590,8 +6605,8 @@
       <c r="C106" s="1">
         <v>0.33</v>
       </c>
-      <c r="D106" s="2">
-        <v>5</v>
+      <c r="D106" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -4604,8 +6619,8 @@
       <c r="C107" s="1">
         <v>0.33</v>
       </c>
-      <c r="D107" s="2">
-        <v>5</v>
+      <c r="D107" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -4618,7 +6633,7 @@
       <c r="C108" s="1">
         <v>0.33</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="3">
         <v>5</v>
       </c>
     </row>
@@ -4632,8 +6647,8 @@
       <c r="C109" s="1">
         <v>2</v>
       </c>
-      <c r="D109" s="2">
-        <v>5</v>
+      <c r="D109" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4646,8 +6661,8 @@
       <c r="C110" s="1">
         <v>2</v>
       </c>
-      <c r="D110" s="2">
-        <v>5</v>
+      <c r="D110" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4660,8 +6675,8 @@
       <c r="C111" s="1">
         <v>2</v>
       </c>
-      <c r="D111" s="2">
-        <v>5</v>
+      <c r="D111" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4674,8 +6689,8 @@
       <c r="C112" s="1">
         <v>0.33</v>
       </c>
-      <c r="D112" s="2">
-        <v>5</v>
+      <c r="D112" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4688,8 +6703,8 @@
       <c r="C113" s="1">
         <v>0.33</v>
       </c>
-      <c r="D113" s="2">
-        <v>5</v>
+      <c r="D113" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -4702,8 +6717,8 @@
       <c r="C114" s="1">
         <v>0.33</v>
       </c>
-      <c r="D114" s="2">
-        <v>5</v>
+      <c r="D114" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4716,8 +6731,8 @@
       <c r="C115" s="1">
         <v>0.33</v>
       </c>
-      <c r="D115" s="2">
-        <v>5</v>
+      <c r="D115" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -4730,8 +6745,8 @@
       <c r="C116" s="1">
         <v>0.33</v>
       </c>
-      <c r="D116" s="2">
-        <v>5</v>
+      <c r="D116" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4744,8 +6759,8 @@
       <c r="C117" s="1">
         <v>0.33</v>
       </c>
-      <c r="D117" s="2">
-        <v>5</v>
+      <c r="D117" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -4758,8 +6773,8 @@
       <c r="C118" s="1">
         <v>0.33</v>
       </c>
-      <c r="D118" s="2">
-        <v>5</v>
+      <c r="D118" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4772,8 +6787,8 @@
       <c r="C119" s="1">
         <v>0.33</v>
       </c>
-      <c r="D119" s="2">
-        <v>5</v>
+      <c r="D119" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -4786,8 +6801,8 @@
       <c r="C120" s="1">
         <v>0.33</v>
       </c>
-      <c r="D120" s="2">
-        <v>5</v>
+      <c r="D120" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -4800,8 +6815,8 @@
       <c r="C121" s="1">
         <v>0.33</v>
       </c>
-      <c r="D121" s="2">
-        <v>5</v>
+      <c r="D121" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4814,8 +6829,8 @@
       <c r="C122" s="1">
         <v>0.33</v>
       </c>
-      <c r="D122" s="2">
-        <v>5</v>
+      <c r="D122" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4828,8 +6843,8 @@
       <c r="C123" s="1">
         <v>16</v>
       </c>
-      <c r="D123" s="2">
-        <v>2</v>
+      <c r="D123" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4842,8 +6857,8 @@
       <c r="C124" s="1">
         <v>8</v>
       </c>
-      <c r="D124" s="2">
-        <v>2</v>
+      <c r="D124" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -4856,8 +6871,8 @@
       <c r="C125" s="1">
         <v>16</v>
       </c>
-      <c r="D125" s="2">
-        <v>2</v>
+      <c r="D125" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -4870,7 +6885,7 @@
       <c r="C126" s="1">
         <v>8</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="3">
         <v>5</v>
       </c>
     </row>
@@ -4884,8 +6899,8 @@
       <c r="C127" s="1">
         <v>8</v>
       </c>
-      <c r="D127" s="2">
-        <v>5</v>
+      <c r="D127" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -4898,8 +6913,8 @@
       <c r="C128" s="1">
         <v>8</v>
       </c>
-      <c r="D128" s="2">
-        <v>5</v>
+      <c r="D128" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4912,8 +6927,8 @@
       <c r="C129" s="1">
         <v>8</v>
       </c>
-      <c r="D129" s="2">
-        <v>5</v>
+      <c r="D129" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4926,8 +6941,8 @@
       <c r="C130" s="1">
         <v>8</v>
       </c>
-      <c r="D130" s="2">
-        <v>5</v>
+      <c r="D130" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4940,8 +6955,8 @@
       <c r="C131" s="1">
         <v>8</v>
       </c>
-      <c r="D131" s="2">
-        <v>5</v>
+      <c r="D131" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4954,8 +6969,8 @@
       <c r="C132" s="1">
         <v>8</v>
       </c>
-      <c r="D132" s="2">
-        <v>5</v>
+      <c r="D132" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -4968,7 +6983,7 @@
       <c r="C133" s="1">
         <v>8</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="3">
         <v>2</v>
       </c>
     </row>
@@ -4982,8 +6997,8 @@
       <c r="C134" s="1">
         <v>8</v>
       </c>
-      <c r="D134" s="2">
-        <v>2</v>
+      <c r="D134" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4996,7 +7011,7 @@
       <c r="C135" s="1">
         <v>8</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="3">
         <v>1</v>
       </c>
     </row>
@@ -5010,8 +7025,8 @@
       <c r="C136" s="1">
         <v>6</v>
       </c>
-      <c r="D136" s="2">
-        <v>5</v>
+      <c r="D136" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5024,8 +7039,8 @@
       <c r="C137" s="1">
         <v>6</v>
       </c>
-      <c r="D137" s="2">
-        <v>5</v>
+      <c r="D137" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -5038,8 +7053,8 @@
       <c r="C138" s="1">
         <v>6</v>
       </c>
-      <c r="D138" s="2">
-        <v>5</v>
+      <c r="D138" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -5052,7 +7067,7 @@
       <c r="C139" s="1">
         <v>6</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="3">
         <v>5</v>
       </c>
     </row>
@@ -5066,8 +7081,8 @@
       <c r="C140" s="1">
         <v>4</v>
       </c>
-      <c r="D140" s="2">
-        <v>2</v>
+      <c r="D140" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5080,7 +7095,7 @@
       <c r="C141" s="1">
         <v>4</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="3">
         <v>2</v>
       </c>
     </row>
@@ -5094,8 +7109,8 @@
       <c r="C142" s="1">
         <v>6</v>
       </c>
-      <c r="D142" s="2">
-        <v>5</v>
+      <c r="D142" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -5108,8 +7123,8 @@
       <c r="C143" s="1">
         <v>6</v>
       </c>
-      <c r="D143" s="2">
-        <v>5</v>
+      <c r="D143" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -5122,8 +7137,8 @@
       <c r="C144" s="1">
         <v>6</v>
       </c>
-      <c r="D144" s="2">
-        <v>5</v>
+      <c r="D144" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -5136,8 +7151,8 @@
       <c r="C145" s="1">
         <v>6</v>
       </c>
-      <c r="D145" s="2">
-        <v>5</v>
+      <c r="D145" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5150,8 +7165,8 @@
       <c r="C146" s="1">
         <v>6</v>
       </c>
-      <c r="D146" s="2">
-        <v>5</v>
+      <c r="D146" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -5164,8 +7179,8 @@
       <c r="C147" s="1">
         <v>6</v>
       </c>
-      <c r="D147" s="2">
-        <v>5</v>
+      <c r="D147" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -5178,8 +7193,8 @@
       <c r="C148" s="1">
         <v>22.33</v>
       </c>
-      <c r="D148" s="2">
-        <v>2</v>
+      <c r="D148" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -5192,8 +7207,8 @@
       <c r="C149" s="1">
         <v>19.329999999999998</v>
       </c>
-      <c r="D149" s="2">
-        <v>2</v>
+      <c r="D149" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5206,8 +7221,8 @@
       <c r="C150" s="1">
         <v>16.670000000000002</v>
       </c>
-      <c r="D150" s="2">
-        <v>2</v>
+      <c r="D150" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -5220,8 +7235,8 @@
       <c r="C151" s="1">
         <v>0.33</v>
       </c>
-      <c r="D151" s="2">
-        <v>5</v>
+      <c r="D151" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -5234,8 +7249,8 @@
       <c r="C152" s="1">
         <v>0.33</v>
       </c>
-      <c r="D152" s="2">
-        <v>5</v>
+      <c r="D152" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -5248,8 +7263,8 @@
       <c r="C153" s="1">
         <v>0.33</v>
       </c>
-      <c r="D153" s="2">
-        <v>5</v>
+      <c r="D153" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5262,7 +7277,7 @@
       <c r="C154" s="1">
         <v>0.33</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="3">
         <v>5</v>
       </c>
     </row>
@@ -5276,8 +7291,8 @@
       <c r="C155" s="1">
         <v>16</v>
       </c>
-      <c r="D155" s="2">
-        <v>2</v>
+      <c r="D155" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -5290,8 +7305,8 @@
       <c r="C156" s="1">
         <v>16</v>
       </c>
-      <c r="D156" s="2">
-        <v>2</v>
+      <c r="D156" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5304,7 +7319,7 @@
       <c r="C157" s="1">
         <v>16</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="3">
         <v>2</v>
       </c>
     </row>
@@ -5318,8 +7333,8 @@
       <c r="C158" s="1">
         <v>16</v>
       </c>
-      <c r="D158" s="2">
-        <v>2</v>
+      <c r="D158" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -5332,7 +7347,7 @@
       <c r="C159" s="1">
         <v>1</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" s="3">
         <v>1</v>
       </c>
     </row>
@@ -5346,7 +7361,7 @@
       <c r="C160" s="1">
         <v>0.33</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="3">
         <v>1</v>
       </c>
     </row>
@@ -5360,7 +7375,7 @@
       <c r="C161" s="1">
         <v>4</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="3">
         <v>2</v>
       </c>
     </row>
@@ -5374,7 +7389,7 @@
       <c r="C162" s="1">
         <v>1.67</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="3">
         <v>2</v>
       </c>
     </row>
@@ -5388,7 +7403,7 @@
       <c r="C163" s="1">
         <v>24</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="3">
         <v>1</v>
       </c>
     </row>
@@ -5402,8 +7417,8 @@
       <c r="C164" s="1">
         <v>6</v>
       </c>
-      <c r="D164" s="2">
-        <v>2</v>
+      <c r="D164" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -5416,8 +7431,8 @@
       <c r="C165" s="1">
         <v>6</v>
       </c>
-      <c r="D165" s="2">
-        <v>5</v>
+      <c r="D165" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -5430,7 +7445,7 @@
       <c r="C166" s="1">
         <v>32</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D166" s="3">
         <v>1</v>
       </c>
     </row>
@@ -5444,7 +7459,7 @@
       <c r="C167" s="1">
         <v>12</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="3">
         <v>1</v>
       </c>
     </row>
@@ -5458,8 +7473,8 @@
       <c r="C168" s="1">
         <v>12</v>
       </c>
-      <c r="D168" s="2">
-        <v>5</v>
+      <c r="D168" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5472,8 +7487,8 @@
       <c r="C169" s="1">
         <v>4</v>
       </c>
-      <c r="D169" s="2">
-        <v>5</v>
+      <c r="D169" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5486,8 +7501,8 @@
       <c r="C170" s="1">
         <v>3</v>
       </c>
-      <c r="D170" s="2">
-        <v>2</v>
+      <c r="D170" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5500,7 +7515,7 @@
       <c r="C171" s="1">
         <v>0.67</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171" s="3">
         <v>1</v>
       </c>
     </row>
@@ -5514,8 +7529,8 @@
       <c r="C172" s="1">
         <v>4</v>
       </c>
-      <c r="D172" s="2">
-        <v>5</v>
+      <c r="D172" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5528,8 +7543,8 @@
       <c r="C173" s="1">
         <v>4</v>
       </c>
-      <c r="D173" s="2">
-        <v>2</v>
+      <c r="D173" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5538,12 +7553,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF367F1-FA86-4ADC-A127-A74173308239}">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5551,7 +7566,7 @@
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5564,7 +7579,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5578,8 +7593,8 @@
       <c r="C2" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D2" s="2">
-        <v>13</v>
+      <c r="D2" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5592,8 +7607,8 @@
       <c r="C3" s="1">
         <v>6.3333329999999997</v>
       </c>
-      <c r="D3" s="2">
-        <v>13</v>
+      <c r="D3" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5606,8 +7621,8 @@
       <c r="C4" s="1">
         <v>16.66667</v>
       </c>
-      <c r="D4" s="2">
-        <v>13</v>
+      <c r="D4" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5620,8 +7635,8 @@
       <c r="C5" s="1">
         <v>22.33333</v>
       </c>
-      <c r="D5" s="2">
-        <v>13</v>
+      <c r="D5" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5634,8 +7649,8 @@
       <c r="C6" s="1">
         <v>10.33333</v>
       </c>
-      <c r="D6" s="2">
-        <v>13</v>
+      <c r="D6" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5648,8 +7663,8 @@
       <c r="C7" s="1">
         <v>0.66666700000000001</v>
       </c>
-      <c r="D7" s="2">
-        <v>13</v>
+      <c r="D7" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5662,8 +7677,8 @@
       <c r="C8" s="1">
         <v>22.33333</v>
       </c>
-      <c r="D8" s="2">
-        <v>13</v>
+      <c r="D8" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5676,8 +7691,8 @@
       <c r="C9" s="1">
         <v>11</v>
       </c>
-      <c r="D9" s="2">
-        <v>13</v>
+      <c r="D9" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5690,8 +7705,8 @@
       <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="2">
-        <v>13</v>
+      <c r="D10" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5704,8 +7719,8 @@
       <c r="C11" s="1">
         <v>0.7</v>
       </c>
-      <c r="D11" s="2">
-        <v>13</v>
+      <c r="D11" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5718,8 +7733,8 @@
       <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="2">
-        <v>13</v>
+      <c r="D12" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5732,8 +7747,8 @@
       <c r="C13" s="1">
         <v>4.3333329999999997</v>
       </c>
-      <c r="D13" s="2">
-        <v>13</v>
+      <c r="D13" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5746,8 +7761,8 @@
       <c r="C14" s="1">
         <v>0.66666700000000001</v>
       </c>
-      <c r="D14" s="2">
-        <v>13</v>
+      <c r="D14" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5760,8 +7775,8 @@
       <c r="C15" s="1">
         <v>21.66667</v>
       </c>
-      <c r="D15" s="2">
-        <v>13</v>
+      <c r="D15" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5774,8 +7789,8 @@
       <c r="C16" s="1">
         <v>0.66666700000000001</v>
       </c>
-      <c r="D16" s="2">
-        <v>13</v>
+      <c r="D16" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5788,8 +7803,8 @@
       <c r="C17" s="1">
         <v>4.3333329999999997</v>
       </c>
-      <c r="D17" s="2">
-        <v>13</v>
+      <c r="D17" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5802,8 +7817,8 @@
       <c r="C18" s="1">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D18" s="2">
-        <v>13</v>
+      <c r="D18" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5816,8 +7831,8 @@
       <c r="C19" s="1">
         <v>60</v>
       </c>
-      <c r="D19" s="2">
-        <v>13</v>
+      <c r="D19" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5830,8 +7845,8 @@
       <c r="C20" s="1">
         <v>0.66666700000000001</v>
       </c>
-      <c r="D20" s="2">
-        <v>13</v>
+      <c r="D20" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5844,8 +7859,8 @@
       <c r="C21" s="1">
         <v>19.33333</v>
       </c>
-      <c r="D21" s="2">
-        <v>13</v>
+      <c r="D21" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5858,8 +7873,8 @@
       <c r="C22" s="1">
         <v>6.3333329999999997</v>
       </c>
-      <c r="D22" s="2">
-        <v>13</v>
+      <c r="D22" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5872,8 +7887,8 @@
       <c r="C23" s="1">
         <v>1.3333330000000001</v>
       </c>
-      <c r="D23" s="2">
-        <v>13</v>
+      <c r="D23" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5886,8 +7901,8 @@
       <c r="C24" s="1">
         <v>1.6666669999999999</v>
       </c>
-      <c r="D24" s="2">
-        <v>13</v>
+      <c r="D24" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5900,8 +7915,8 @@
       <c r="C25" s="1">
         <v>0.66666700000000001</v>
       </c>
-      <c r="D25" s="2">
-        <v>13</v>
+      <c r="D25" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5914,8 +7929,8 @@
       <c r="C26" s="1">
         <v>18.33333</v>
       </c>
-      <c r="D26" s="2">
-        <v>13</v>
+      <c r="D26" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5928,8 +7943,8 @@
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="2">
-        <v>13</v>
+      <c r="D27" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5942,8 +7957,8 @@
       <c r="C28" s="1">
         <v>16.66667</v>
       </c>
-      <c r="D28" s="2">
-        <v>13</v>
+      <c r="D28" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5956,8 +7971,8 @@
       <c r="C29" s="1">
         <v>6.6666670000000003</v>
       </c>
-      <c r="D29" s="2">
-        <v>13</v>
+      <c r="D29" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5970,8 +7985,8 @@
       <c r="C30" s="1">
         <v>0.66666700000000001</v>
       </c>
-      <c r="D30" s="2">
-        <v>13</v>
+      <c r="D30" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5984,8 +7999,8 @@
       <c r="C31" s="1">
         <v>4.6666670000000003</v>
       </c>
-      <c r="D31" s="2">
-        <v>13</v>
+      <c r="D31" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5998,8 +8013,8 @@
       <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="2">
-        <v>13</v>
+      <c r="D32" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -6012,8 +8027,8 @@
       <c r="C33" s="1">
         <v>3</v>
       </c>
-      <c r="D33" s="2">
-        <v>13</v>
+      <c r="D33" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -6026,8 +8041,8 @@
       <c r="C34" s="1">
         <v>1.6666669999999999</v>
       </c>
-      <c r="D34" s="2">
-        <v>13</v>
+      <c r="D34" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -6040,8 +8055,8 @@
       <c r="C35" s="1">
         <v>49.333329999999997</v>
       </c>
-      <c r="D35" s="2">
-        <v>13</v>
+      <c r="D35" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -6054,8 +8069,8 @@
       <c r="C36" s="1">
         <v>3.3333330000000001</v>
       </c>
-      <c r="D36" s="2">
-        <v>13</v>
+      <c r="D36" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -6068,8 +8083,8 @@
       <c r="C37" s="1">
         <v>1</v>
       </c>
-      <c r="D37" s="2">
-        <v>13</v>
+      <c r="D37" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -6082,8 +8097,8 @@
       <c r="C38" s="1">
         <v>24</v>
       </c>
-      <c r="D38" s="2">
-        <v>13</v>
+      <c r="D38" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -6096,8 +8111,8 @@
       <c r="C39" s="1">
         <v>20</v>
       </c>
-      <c r="D39" s="2">
-        <v>13</v>
+      <c r="D39" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -6110,8 +8125,8 @@
       <c r="C40" s="1">
         <v>16</v>
       </c>
-      <c r="D40" s="2">
-        <v>13</v>
+      <c r="D40" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -6124,8 +8139,8 @@
       <c r="C41" s="1">
         <v>12</v>
       </c>
-      <c r="D41" s="2">
-        <v>13</v>
+      <c r="D41" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -6138,8 +8153,8 @@
       <c r="C42" s="1">
         <v>16</v>
       </c>
-      <c r="D42" s="2">
-        <v>13</v>
+      <c r="D42" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -6152,8 +8167,8 @@
       <c r="C43" s="1">
         <v>8</v>
       </c>
-      <c r="D43" s="2">
-        <v>13</v>
+      <c r="D43" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -6166,8 +8181,8 @@
       <c r="C44" s="1">
         <v>4</v>
       </c>
-      <c r="D44" s="2">
-        <v>13</v>
+      <c r="D44" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -6180,8 +8195,8 @@
       <c r="C45" s="1">
         <v>16</v>
       </c>
-      <c r="D45" s="2">
-        <v>13</v>
+      <c r="D45" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -6194,8 +8209,8 @@
       <c r="C46" s="1">
         <v>8</v>
       </c>
-      <c r="D46" s="2">
-        <v>13</v>
+      <c r="D46" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -6208,8 +8223,8 @@
       <c r="C47" s="1">
         <v>24</v>
       </c>
-      <c r="D47" s="2">
-        <v>13</v>
+      <c r="D47" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -6222,8 +8237,8 @@
       <c r="C48" s="1">
         <v>24</v>
       </c>
-      <c r="D48" s="2">
-        <v>13</v>
+      <c r="D48" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -6236,8 +8251,8 @@
       <c r="C49" s="1">
         <v>36</v>
       </c>
-      <c r="D49" s="2">
-        <v>13</v>
+      <c r="D49" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -6245,13 +8260,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1">
         <v>24</v>
       </c>
-      <c r="D50" s="2">
-        <v>13</v>
+      <c r="D50" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -6264,8 +8279,8 @@
       <c r="C51" s="1">
         <v>5</v>
       </c>
-      <c r="D51" s="2">
-        <v>13</v>
+      <c r="D51" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6278,8 +8293,8 @@
       <c r="C52" s="1">
         <v>5</v>
       </c>
-      <c r="D52" s="2">
-        <v>13</v>
+      <c r="D52" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -6292,8 +8307,8 @@
       <c r="C53" s="1">
         <v>10</v>
       </c>
-      <c r="D53" s="2">
-        <v>13</v>
+      <c r="D53" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -6306,8 +8321,8 @@
       <c r="C54" s="1">
         <v>32</v>
       </c>
-      <c r="D54" s="2">
-        <v>13</v>
+      <c r="D54" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -6320,8 +8335,8 @@
       <c r="C55" s="1">
         <v>44</v>
       </c>
-      <c r="D55" s="2">
-        <v>13</v>
+      <c r="D55" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -6334,8 +8349,8 @@
       <c r="C56" s="1">
         <v>16</v>
       </c>
-      <c r="D56" s="2">
-        <v>13</v>
+      <c r="D56" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -6348,8 +8363,8 @@
       <c r="C57" s="1">
         <v>18</v>
       </c>
-      <c r="D57" s="2">
-        <v>13</v>
+      <c r="D57" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -6362,8 +8377,8 @@
       <c r="C58" s="1">
         <v>32</v>
       </c>
-      <c r="D58" s="2">
-        <v>13</v>
+      <c r="D58" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -6376,8 +8391,8 @@
       <c r="C59" s="1">
         <v>24</v>
       </c>
-      <c r="D59" s="2">
-        <v>13</v>
+      <c r="D59" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -6390,8 +8405,8 @@
       <c r="C60" s="1">
         <v>12</v>
       </c>
-      <c r="D60" s="2">
-        <v>13</v>
+      <c r="D60" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -6404,8 +8419,8 @@
       <c r="C61" s="1">
         <v>16</v>
       </c>
-      <c r="D61" s="2">
-        <v>13</v>
+      <c r="D61" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -6418,8 +8433,8 @@
       <c r="C62" s="1">
         <v>76</v>
       </c>
-      <c r="D62" s="2">
-        <v>13</v>
+      <c r="D62" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -6432,8 +8447,8 @@
       <c r="C63" s="1">
         <v>8</v>
       </c>
-      <c r="D63" s="2">
-        <v>13</v>
+      <c r="D63" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -6446,8 +8461,8 @@
       <c r="C64" s="1">
         <v>32</v>
       </c>
-      <c r="D64" s="2">
-        <v>13</v>
+      <c r="D64" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -6460,8 +8475,8 @@
       <c r="C65" s="1">
         <v>16</v>
       </c>
-      <c r="D65" s="2">
-        <v>13</v>
+      <c r="D65" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -6474,8 +8489,8 @@
       <c r="C66" s="1">
         <v>8</v>
       </c>
-      <c r="D66" s="2">
-        <v>13</v>
+      <c r="D66" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -6488,8 +8503,8 @@
       <c r="C67" s="1">
         <v>5</v>
       </c>
-      <c r="D67" s="2">
-        <v>13</v>
+      <c r="D67" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -6502,8 +8517,8 @@
       <c r="C68" s="1">
         <v>12</v>
       </c>
-      <c r="D68" s="2">
-        <v>13</v>
+      <c r="D68" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -6511,13 +8526,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C69" s="1">
         <v>20</v>
       </c>
-      <c r="D69" s="2">
-        <v>13</v>
+      <c r="D69" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -6530,8 +8545,8 @@
       <c r="C70" s="1">
         <v>60</v>
       </c>
-      <c r="D70" s="2">
-        <v>13</v>
+      <c r="D70" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -6544,8 +8559,8 @@
       <c r="C71" s="1">
         <v>77</v>
       </c>
-      <c r="D71" s="2">
-        <v>13</v>
+      <c r="D71" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -6558,8 +8573,8 @@
       <c r="C72" s="1">
         <v>4</v>
       </c>
-      <c r="D72" s="2">
-        <v>13</v>
+      <c r="D72" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -6572,8 +8587,8 @@
       <c r="C73" s="1">
         <v>20</v>
       </c>
-      <c r="D73" s="2">
-        <v>13</v>
+      <c r="D73" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -6586,8 +8601,8 @@
       <c r="C74" s="1">
         <v>23</v>
       </c>
-      <c r="D74" s="2">
-        <v>13</v>
+      <c r="D74" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -6600,8 +8615,8 @@
       <c r="C75" s="1">
         <v>4</v>
       </c>
-      <c r="D75" s="2">
-        <v>13</v>
+      <c r="D75" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -6614,8 +8629,8 @@
       <c r="C76" s="1">
         <v>16</v>
       </c>
-      <c r="D76" s="2">
-        <v>13</v>
+      <c r="D76" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -6628,8 +8643,8 @@
       <c r="C77" s="1">
         <v>24</v>
       </c>
-      <c r="D77" s="2">
-        <v>13</v>
+      <c r="D77" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -6642,8 +8657,8 @@
       <c r="C78" s="1">
         <v>20</v>
       </c>
-      <c r="D78" s="2">
-        <v>13</v>
+      <c r="D78" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -6651,13 +8666,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C79" s="1">
         <v>20</v>
       </c>
-      <c r="D79" s="2">
-        <v>13</v>
+      <c r="D79" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -6670,8 +8685,8 @@
       <c r="C80" s="1">
         <v>6</v>
       </c>
-      <c r="D80" s="2">
-        <v>13</v>
+      <c r="D80" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -6684,8 +8699,8 @@
       <c r="C81" s="1">
         <v>49</v>
       </c>
-      <c r="D81" s="2">
-        <v>13</v>
+      <c r="D81" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -6698,8 +8713,8 @@
       <c r="C82" s="1">
         <v>6</v>
       </c>
-      <c r="D82" s="2">
-        <v>13</v>
+      <c r="D82" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -6712,8 +8727,8 @@
       <c r="C83" s="1">
         <v>8</v>
       </c>
-      <c r="D83" s="2">
-        <v>13</v>
+      <c r="D83" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -6726,8 +8741,8 @@
       <c r="C84" s="1">
         <v>32</v>
       </c>
-      <c r="D84" s="2">
-        <v>13</v>
+      <c r="D84" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -6740,8 +8755,8 @@
       <c r="C85" s="1">
         <v>64</v>
       </c>
-      <c r="D85" s="2">
-        <v>13</v>
+      <c r="D85" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E674C6C-E6E7-4C29-880E-A7AC2A3DC32B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEBF1DAF-25AD-4392-8AB8-A0E1F849E5B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
   <si>
     <t>Atividade</t>
   </si>
@@ -298,12 +298,6 @@
     <t>Rota 84</t>
   </si>
   <si>
-    <t>Texto para Ciclo</t>
-  </si>
-  <si>
-    <t>Área Fábio</t>
-  </si>
-  <si>
     <t>CR</t>
   </si>
   <si>
@@ -326,60 +320,6 @@
   </si>
   <si>
     <t>RK</t>
-  </si>
-  <si>
-    <t>21.12</t>
-  </si>
-  <si>
-    <t>44.22</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>87.78</t>
-  </si>
-  <si>
-    <t>71.44</t>
-  </si>
-  <si>
-    <t>59.22</t>
-  </si>
-  <si>
-    <t>9.40</t>
-  </si>
-  <si>
-    <t>35.72</t>
-  </si>
-  <si>
-    <t>73.32</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>46.20</t>
-  </si>
-  <si>
-    <t>88.11</t>
-  </si>
-  <si>
-    <t>28.22</t>
-  </si>
-  <si>
-    <t>18.24</t>
-  </si>
-  <si>
-    <t>9.79</t>
-  </si>
-  <si>
-    <t>56.98</t>
-  </si>
-  <si>
-    <t>113.96</t>
-  </si>
-  <si>
-    <t>67.32</t>
   </si>
 </sst>
 </file>
@@ -492,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -513,17 +453,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -4828,279 +4762,279 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12">
+        <v>21.12</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>44.22</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="8">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12">
+        <v>87.78</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12">
+        <v>71.44</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>59.22</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12">
+        <v>9.4</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="8">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12">
+        <v>35.72</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12">
+        <v>73.319999999999993</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="9">
-        <v>2</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12">
+        <v>33</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="8">
-        <v>6</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12">
+        <v>46.2</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="9">
-        <v>2</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>67.319999999999993</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="8">
-        <v>6</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="8">
-        <v>3</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="B14" s="8">
+        <v>3</v>
+      </c>
+      <c r="C14" s="12">
+        <v>88.11</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="9">
-        <v>2</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
+        <v>28.22</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="8">
-        <v>3</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" s="12">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="9">
-        <v>2</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="9">
-        <v>2</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="B18" s="9">
         <v>2</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="14">
+      <c r="C18" s="12">
+        <v>56.98</v>
+      </c>
+      <c r="D18" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>97</v>
+      <c r="A19" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="14">
+      <c r="C19" s="12">
+        <v>113.96</v>
+      </c>
+      <c r="D19" s="12">
         <v>1</v>
       </c>
     </row>

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEBF1DAF-25AD-4392-8AB8-A0E1F849E5B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C686C14-26F6-4D10-AC95-894283A65A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
@@ -422,9 +422,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -432,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -447,23 +445,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4759,10 +4763,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD783050-EDB5-4AA1-B656-595D1DCBADC5}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4772,7 +4776,7 @@
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4785,256 +4789,274 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="9">
         <v>2</v>
       </c>
-      <c r="C2" s="12">
-        <v>21.12</v>
-      </c>
-      <c r="D2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="C2" s="15">
+        <v>13.2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12">
-        <v>44.22</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
+        <v>27.06</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="8">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="11">
+        <v>6</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1.98</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12">
-        <v>87.78</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15">
+        <v>54.78</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="12">
-        <v>71.44</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="C6" s="15">
+        <v>48.88</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12">
-        <v>59.22</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
+        <v>42.3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="12">
-        <v>9.4</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="B8" s="11">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15">
+        <v>7.52</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="8">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12">
-        <v>35.72</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="B9" s="11">
+        <v>6</v>
+      </c>
+      <c r="C9" s="15">
+        <v>17.86</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="8">
-        <v>3</v>
-      </c>
-      <c r="C10" s="12">
-        <v>73.319999999999993</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="B10" s="11">
+        <v>3</v>
+      </c>
+      <c r="C10" s="15">
+        <v>41.36</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="9">
         <v>2</v>
       </c>
-      <c r="C11" s="12">
-        <v>33</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="C11" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12">
-        <v>46.2</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15">
+        <v>34.1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15">
+        <v>51.48</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="11">
+        <v>3</v>
+      </c>
+      <c r="C14" s="15">
         <v>67.319999999999993</v>
       </c>
-      <c r="D13" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="8">
-        <v>3</v>
-      </c>
-      <c r="C14" s="12">
-        <v>88.11</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B15" s="9">
         <v>1</v>
       </c>
-      <c r="C15" s="12">
-        <v>28.22</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="C15" s="15">
+        <v>14.11</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="9">
         <v>2</v>
       </c>
-      <c r="C16" s="12">
-        <v>18.239999999999998</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="C16" s="15">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="9">
         <v>2</v>
       </c>
-      <c r="C17" s="12">
-        <v>9.7899999999999991</v>
-      </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="C17" s="15">
+        <v>6.23</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="9">
         <v>2</v>
       </c>
-      <c r="C18" s="12">
-        <v>56.98</v>
-      </c>
-      <c r="D18" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="15">
+        <v>37</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="8">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12">
-        <v>113.96</v>
-      </c>
-      <c r="D19" s="12">
+      <c r="B19" s="11">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15">
+        <v>87.32</v>
+      </c>
+      <c r="D19" s="14">
         <v>1</v>
       </c>
     </row>

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C686C14-26F6-4D10-AC95-894283A65A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D1B8837-3CE4-49CF-9763-6057FFB2C20B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
@@ -422,7 +422,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -430,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -445,7 +447,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -458,16 +478,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4763,10 +4774,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD783050-EDB5-4AA1-B656-595D1DCBADC5}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4789,278 +4800,399 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="9">
         <v>2</v>
       </c>
-      <c r="C2" s="15">
-        <v>13.2</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10"/>
+      <c r="C2" s="12">
+        <v>21.12</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15">
-        <v>27.06</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10"/>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>44.22</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="11">
-        <v>6</v>
-      </c>
-      <c r="C4" s="15">
-        <v>1.98</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10"/>
+      <c r="B4" s="8">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="11">
-        <v>3</v>
-      </c>
-      <c r="C5" s="15">
-        <v>54.78</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10"/>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12">
+        <v>87.78</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="15">
-        <v>48.88</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10"/>
+      <c r="C6" s="12">
+        <v>71.44</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="11">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15">
-        <v>42.3</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10"/>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>59.22</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="11">
-        <v>4</v>
-      </c>
-      <c r="C8" s="15">
-        <v>7.52</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10"/>
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12">
+        <v>9.4</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="11">
-        <v>6</v>
-      </c>
-      <c r="C9" s="15">
-        <v>17.86</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10"/>
+      <c r="B9" s="8">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12">
+        <v>35.72</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="11">
-        <v>3</v>
-      </c>
-      <c r="C10" s="15">
-        <v>41.36</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10"/>
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12">
+        <v>73.319999999999993</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="9">
         <v>2</v>
       </c>
-      <c r="C11" s="15">
-        <v>16.5</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10"/>
+      <c r="C11" s="12">
+        <v>33</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="11">
-        <v>1</v>
-      </c>
-      <c r="C12" s="15">
-        <v>34.1</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10"/>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12">
+        <v>46.2</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="11">
-        <v>1</v>
-      </c>
-      <c r="C13" s="15">
-        <v>51.48</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10"/>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>67.319999999999993</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="11">
-        <v>3</v>
-      </c>
-      <c r="C14" s="15">
-        <v>67.319999999999993</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10"/>
+      <c r="B14" s="8">
+        <v>3</v>
+      </c>
+      <c r="C14" s="12">
+        <v>88.11</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B15" s="9">
         <v>1</v>
       </c>
-      <c r="C15" s="15">
-        <v>14.11</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10"/>
+      <c r="C15" s="12">
+        <v>28.22</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="9">
         <v>2</v>
       </c>
-      <c r="C16" s="15">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="10"/>
+      <c r="C16" s="12">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="9">
         <v>2</v>
       </c>
-      <c r="C17" s="15">
-        <v>6.23</v>
-      </c>
-      <c r="D17" s="8">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10"/>
+      <c r="C17" s="12">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="9">
         <v>2</v>
       </c>
-      <c r="C18" s="15">
-        <v>37</v>
-      </c>
-      <c r="D18" s="14">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10"/>
+      <c r="C18" s="12">
+        <v>56.98</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="11">
-        <v>1</v>
-      </c>
-      <c r="C19" s="15">
-        <v>87.32</v>
-      </c>
-      <c r="D19" s="14">
-        <v>1</v>
-      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12">
+        <v>113.96</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="16"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="18"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="18"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="18"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="18"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="18"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="18"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="18"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="16"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="18"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="18"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="18"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="18"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="18"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="18"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="18"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="18"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="18"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B27:B30"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D1B8837-3CE4-49CF-9763-6057FFB2C20B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5693614F-BDD0-45B8-BEF9-D4C089FE3651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -475,10 +475,22 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4777,14 +4789,14 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D19"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4794,7 +4806,7 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -4809,7 +4821,7 @@
       <c r="B2" s="9">
         <v>2</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="22">
         <v>21.12</v>
       </c>
       <c r="D2" s="12">
@@ -4824,7 +4836,7 @@
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="22">
         <v>44.22</v>
       </c>
       <c r="D3" s="12">
@@ -4839,7 +4851,7 @@
       <c r="B4" s="8">
         <v>6</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="22">
         <v>3.3</v>
       </c>
       <c r="D4" s="12">
@@ -4854,7 +4866,7 @@
       <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="22">
         <v>87.78</v>
       </c>
       <c r="D5" s="12">
@@ -4869,7 +4881,7 @@
       <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="22">
         <v>71.44</v>
       </c>
       <c r="D6" s="12">
@@ -4884,7 +4896,7 @@
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="22">
         <v>59.22</v>
       </c>
       <c r="D7" s="12">
@@ -4899,7 +4911,7 @@
       <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="22">
         <v>9.4</v>
       </c>
       <c r="D8" s="12">
@@ -4914,7 +4926,7 @@
       <c r="B9" s="8">
         <v>6</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="22">
         <v>35.72</v>
       </c>
       <c r="D9" s="12">
@@ -4929,7 +4941,7 @@
       <c r="B10" s="8">
         <v>3</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="22">
         <v>73.319999999999993</v>
       </c>
       <c r="D10" s="12">
@@ -4944,7 +4956,7 @@
       <c r="B11" s="9">
         <v>2</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="22">
         <v>33</v>
       </c>
       <c r="D11" s="12">
@@ -4959,7 +4971,7 @@
       <c r="B12" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="22">
         <v>46.2</v>
       </c>
       <c r="D12" s="12">
@@ -4974,7 +4986,7 @@
       <c r="B13" s="8">
         <v>1</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="22">
         <v>67.319999999999993</v>
       </c>
       <c r="D13" s="12">
@@ -4989,7 +5001,7 @@
       <c r="B14" s="8">
         <v>3</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="22">
         <v>88.11</v>
       </c>
       <c r="D14" s="12">
@@ -5004,7 +5016,7 @@
       <c r="B15" s="9">
         <v>1</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="22">
         <v>28.22</v>
       </c>
       <c r="D15" s="12">
@@ -5019,7 +5031,7 @@
       <c r="B16" s="9">
         <v>2</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="22">
         <v>18.239999999999998</v>
       </c>
       <c r="D16" s="12">
@@ -5034,7 +5046,7 @@
       <c r="B17" s="9">
         <v>2</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="22">
         <v>9.7899999999999991</v>
       </c>
       <c r="D17" s="12">
@@ -5049,7 +5061,7 @@
       <c r="B18" s="9">
         <v>2</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="22">
         <v>56.98</v>
       </c>
       <c r="D18" s="12">
@@ -5064,7 +5076,7 @@
       <c r="B19" s="8">
         <v>1</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="22">
         <v>113.96</v>
       </c>
       <c r="D19" s="12">
@@ -5077,112 +5089,112 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="18"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
-      <c r="C29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="18"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="18"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="16"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="18"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="16"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="18"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="16"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="18"/>
-      <c r="C34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="16"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="18"/>
-      <c r="C35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="16"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="18"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="16"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="18"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="16"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="18"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="16"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="18"/>
-      <c r="C39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="16"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="18"/>
-      <c r="C40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="16"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="16"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="16"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="16"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="18"/>
-      <c r="C44" s="15"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="16"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="18"/>
-      <c r="C45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="16"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="18"/>
-      <c r="C46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="16"/>
     </row>
   </sheetData>

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5693614F-BDD0-45B8-BEF9-D4C089FE3651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846182CB-F337-4C69-AAEF-C369CF96C30E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -447,12 +447,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -468,14 +462,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -491,6 +479,28 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4789,13 +4799,13 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4803,399 +4813,399 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="16"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="9">
-        <v>2</v>
-      </c>
-      <c r="C2" s="22">
+      <c r="B2" s="20">
+        <v>2</v>
+      </c>
+      <c r="C2" s="18">
         <v>21.12</v>
       </c>
-      <c r="D2" s="12">
-        <v>1</v>
-      </c>
-      <c r="G2" s="16"/>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22">
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18">
         <v>44.22</v>
       </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="G3" s="16"/>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="8">
-        <v>6</v>
-      </c>
-      <c r="C4" s="22">
+      <c r="B4" s="22">
+        <v>6</v>
+      </c>
+      <c r="C4" s="18">
         <v>3.3</v>
       </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16"/>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="22">
+      <c r="B5" s="22">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18">
         <v>87.78</v>
       </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16"/>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="9">
-        <v>2</v>
-      </c>
-      <c r="C6" s="22">
+      <c r="B6" s="20">
+        <v>2</v>
+      </c>
+      <c r="C6" s="18">
         <v>71.44</v>
       </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16"/>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="22">
+      <c r="B7" s="22">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18">
         <v>59.22</v>
       </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16"/>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="22">
+      <c r="B8" s="22">
+        <v>4</v>
+      </c>
+      <c r="C8" s="18">
         <v>9.4</v>
       </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16"/>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="8">
-        <v>6</v>
-      </c>
-      <c r="C9" s="22">
+      <c r="B9" s="22">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18">
         <v>35.72</v>
       </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16"/>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="8">
-        <v>3</v>
-      </c>
-      <c r="C10" s="22">
+      <c r="B10" s="22">
+        <v>3</v>
+      </c>
+      <c r="C10" s="18">
         <v>73.319999999999993</v>
       </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16"/>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="9">
-        <v>2</v>
-      </c>
-      <c r="C11" s="22">
+      <c r="B11" s="20">
+        <v>2</v>
+      </c>
+      <c r="C11" s="18">
         <v>33</v>
       </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="G11" s="16"/>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="22">
+      <c r="B12" s="22">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18">
         <v>46.2</v>
       </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16"/>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="22">
+      <c r="B13" s="22">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18">
         <v>67.319999999999993</v>
       </c>
-      <c r="D13" s="12">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16"/>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="8">
-        <v>3</v>
-      </c>
-      <c r="C14" s="22">
+      <c r="B14" s="22">
+        <v>3</v>
+      </c>
+      <c r="C14" s="18">
         <v>88.11</v>
       </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16"/>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="22">
+      <c r="B15" s="20">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18">
         <v>28.22</v>
       </c>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-      <c r="G15" s="16"/>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="9">
-        <v>2</v>
-      </c>
-      <c r="C16" s="22">
+      <c r="B16" s="20">
+        <v>2</v>
+      </c>
+      <c r="C16" s="18">
         <v>18.239999999999998</v>
       </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-      <c r="G16" s="16"/>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="9">
-        <v>2</v>
-      </c>
-      <c r="C17" s="22">
+      <c r="B17" s="20">
+        <v>2</v>
+      </c>
+      <c r="C17" s="18">
         <v>9.7899999999999991</v>
       </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-      <c r="G17" s="16"/>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="9">
-        <v>2</v>
-      </c>
-      <c r="C18" s="22">
+      <c r="B18" s="20">
+        <v>2</v>
+      </c>
+      <c r="C18" s="18">
         <v>56.98</v>
       </c>
-      <c r="D18" s="12">
-        <v>1</v>
-      </c>
-      <c r="G18" s="16"/>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="8">
-        <v>1</v>
-      </c>
-      <c r="C19" s="22">
+      <c r="B19" s="22">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18">
         <v>113.96</v>
       </c>
-      <c r="D19" s="12">
-        <v>1</v>
-      </c>
-      <c r="G19" s="16"/>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="16"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="14"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="16"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="16"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="17"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="16"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="17"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="16"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="17"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="16"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="17"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="16"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="17"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="16"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="17"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="16"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="17"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="16"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="17"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="16"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="17"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="16"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="17"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="16"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="17"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="16"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="17"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="16"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="15"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="16"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="15"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="16"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="15"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="16"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="17"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="16"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="17"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="16"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="17"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="16"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846182CB-F337-4C69-AAEF-C369CF96C30E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A8470D5-9E3B-4828-8D89-B2EAB5CE6BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -453,26 +453,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -492,15 +474,8 @@
     <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4796,425 +4771,286 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD783050-EDB5-4AA1-B656-595D1DCBADC5}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="20">
-        <v>2</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="B2" s="14">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12">
         <v>21.12</v>
       </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="21">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18">
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
         <v>44.22</v>
       </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="22">
-        <v>6</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="B4" s="16">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12">
         <v>3.3</v>
       </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="22">
-        <v>3</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="B5" s="16">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12">
         <v>87.78</v>
       </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="20">
-        <v>2</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="B6" s="14">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12">
         <v>71.44</v>
       </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="22">
-        <v>1</v>
-      </c>
-      <c r="C7" s="18">
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
         <v>59.22</v>
       </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="22">
-        <v>4</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="B8" s="16">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12">
         <v>9.4</v>
       </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="22">
-        <v>6</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B9" s="16">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12">
         <v>35.72</v>
       </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="22">
-        <v>3</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="B10" s="16">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12">
         <v>73.319999999999993</v>
       </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="20">
-        <v>2</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="B11" s="14">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12">
         <v>33</v>
       </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="22">
-        <v>1</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="B12" s="16">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12">
         <v>46.2</v>
       </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="22">
-        <v>1</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
         <v>67.319999999999993</v>
       </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="22">
-        <v>3</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="B14" s="16">
+        <v>3</v>
+      </c>
+      <c r="C14" s="12">
         <v>88.11</v>
       </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="20">
-        <v>1</v>
-      </c>
-      <c r="C15" s="18">
+      <c r="B15" s="14">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
         <v>28.22</v>
       </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="20">
-        <v>2</v>
-      </c>
-      <c r="C16" s="18">
+      <c r="B16" s="14">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12">
         <v>18.239999999999998</v>
       </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="20">
-        <v>2</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="B17" s="14">
+        <v>2</v>
+      </c>
+      <c r="C17" s="12">
         <v>9.7899999999999991</v>
       </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="20">
-        <v>2</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B18" s="14">
+        <v>2</v>
+      </c>
+      <c r="C18" s="12">
         <v>56.98</v>
       </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="D18" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="22">
-        <v>1</v>
-      </c>
-      <c r="C19" s="18">
+      <c r="B19" s="16">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12">
         <v>113.96</v>
       </c>
-      <c r="D19" s="10">
-        <v>1</v>
-      </c>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="13"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="25"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="25"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="13"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="25"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="13"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="25"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="13"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="13"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="26"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="13"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="26"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="13"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="26"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="13"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="25"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="13"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="25"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="13"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="25"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="13"/>
+      <c r="D19" s="17">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B27:B30"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\Otimizacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A8470D5-9E3B-4828-8D89-B2EAB5CE6BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2EDE04-B6F5-4B00-98D5-DF8887E22908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="Avulsos" sheetId="1" r:id="rId1"/>
     <sheet name="Termo+Acu" sheetId="5" r:id="rId2"/>
     <sheet name="Vibração" sheetId="4" r:id="rId3"/>
-    <sheet name="Atual" sheetId="2" r:id="rId4"/>
-    <sheet name="Rota" sheetId="3" r:id="rId5"/>
+    <sheet name="Planilha1" sheetId="6" r:id="rId4"/>
+    <sheet name="Atual" sheetId="2" r:id="rId5"/>
+    <sheet name="Rota" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Atual!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Atual!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
   <si>
     <t>Atividade</t>
   </si>
@@ -392,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -400,39 +401,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -447,35 +420,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4771,10 +4732,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD783050-EDB5-4AA1-B656-595D1DCBADC5}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4788,265 +4749,251 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="14">
-        <v>2</v>
-      </c>
-      <c r="C2" s="12">
-        <v>21.12</v>
-      </c>
-      <c r="D2" s="17">
+      <c r="B2" s="10">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11">
+        <v>6</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="15">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12">
-        <v>44.22</v>
-      </c>
-      <c r="D3" s="17">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="16">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="D4" s="17">
+      <c r="B4" s="12">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="16">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12">
-        <v>87.78</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11">
+        <v>24.9</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="14">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12">
-        <v>71.44</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11">
+        <v>22.36</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="16">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12">
-        <v>59.22</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="16">
-        <v>4</v>
-      </c>
-      <c r="C8" s="12">
-        <v>9.4</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="B8" s="12">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11">
+        <v>3.44</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="16">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12">
-        <v>35.72</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="B9" s="12">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11">
+        <v>3.87</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="16">
-        <v>3</v>
-      </c>
-      <c r="C10" s="12">
-        <v>73.319999999999993</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="B10" s="12">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="14">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12">
-        <v>33</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>8.82</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="16">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12">
-        <v>46.2</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="A12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <v>28.6</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="16">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12">
-        <v>67.319999999999993</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="B13" s="12">
+        <v>3</v>
+      </c>
+      <c r="C13" s="11">
+        <v>37.4</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="16">
-        <v>3</v>
-      </c>
-      <c r="C14" s="12">
-        <v>88.11</v>
-      </c>
-      <c r="D14" s="17">
+      <c r="A14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11">
+        <v>11.22</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="14">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12">
-        <v>28.22</v>
-      </c>
-      <c r="D15" s="17">
+      <c r="A15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="10">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="14">
-        <v>2</v>
-      </c>
-      <c r="C16" s="12">
-        <v>18.239999999999998</v>
-      </c>
-      <c r="D16" s="17">
+      <c r="A16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="10">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3.12</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="14">
-        <v>2</v>
-      </c>
-      <c r="C17" s="12">
-        <v>9.7899999999999991</v>
-      </c>
-      <c r="D17" s="17">
+      <c r="A17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="10">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11">
+        <v>21.6</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="14">
-        <v>2</v>
-      </c>
-      <c r="C18" s="12">
-        <v>56.98</v>
-      </c>
-      <c r="D18" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="16">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12">
-        <v>113.96</v>
-      </c>
-      <c r="D19" s="17">
+      <c r="B18" s="12">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11">
+        <v>52.65</v>
+      </c>
+      <c r="D18">
         <v>1</v>
       </c>
     </row>
@@ -5056,6 +5003,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF81018-F174-4F69-9B96-29E06BC50BC9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC05F44C-58EE-43C2-B351-6A8EB9E80087}">
   <dimension ref="A1:D173"/>
   <sheetViews>
@@ -7499,7 +7460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF367F1-FA86-4ADC-A127-A74173308239}">
   <dimension ref="A1:D85"/>
   <sheetViews>

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\Otimizacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2EDE04-B6F5-4B00-98D5-DF8887E22908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86198F6-EEFC-4209-9D79-5B64B89FCA2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
@@ -22,6 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Atual!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Vibração!$A$1:$D$18</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -4735,7 +4736,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\Otimizacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86198F6-EEFC-4209-9D79-5B64B89FCA2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED85ECB-FF4E-485A-8C36-F1535EE7E075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Avulsos" sheetId="1" r:id="rId1"/>
     <sheet name="Termo+Acu" sheetId="5" r:id="rId2"/>
     <sheet name="Vibração" sheetId="4" r:id="rId3"/>
-    <sheet name="Planilha1" sheetId="6" r:id="rId4"/>
-    <sheet name="Atual" sheetId="2" r:id="rId5"/>
-    <sheet name="Rota" sheetId="3" r:id="rId6"/>
+    <sheet name="Atual" sheetId="2" r:id="rId4"/>
+    <sheet name="Rota" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Atual!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Atual!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Vibração!$A$1:$D$18</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -4735,7 +4734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD783050-EDB5-4AA1-B656-595D1DCBADC5}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -5004,24 +5003,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF81018-F174-4F69-9B96-29E06BC50BC9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC05F44C-58EE-43C2-B351-6A8EB9E80087}">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -7461,7 +7446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF367F1-FA86-4ADC-A127-A74173308239}">
   <dimension ref="A1:D85"/>
   <sheetViews>

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\Otimizacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED85ECB-FF4E-485A-8C36-F1535EE7E075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A951CCEF-0233-41AD-B5E0-C763F07008D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Avulsos" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="113">
   <si>
     <t>Atividade</t>
   </si>
@@ -321,6 +321,57 @@
   </si>
   <si>
     <t>RK</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>11.70</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>24.90</t>
+  </si>
+  <si>
+    <t>22.36</t>
+  </si>
+  <si>
+    <t>19.35</t>
+  </si>
+  <si>
+    <t>3.44</t>
+  </si>
+  <si>
+    <t>3.87</t>
+  </si>
+  <si>
+    <t>18.92</t>
+  </si>
+  <si>
+    <t>8.82</t>
+  </si>
+  <si>
+    <t>31.96</t>
+  </si>
+  <si>
+    <t>11.22</t>
+  </si>
+  <si>
+    <t>8.72</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>19.20</t>
+  </si>
+  <si>
+    <t>24.44</t>
+  </si>
+  <si>
+    <t>46.80</t>
   </si>
 </sst>
 </file>
@@ -356,18 +407,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF212121"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF212121"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,12 +437,6 @@
         <bgColor rgb="FF4472C4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -405,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -420,22 +465,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -4734,8 +4776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD783050-EDB5-4AA1-B656-595D1DCBADC5}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4749,255 +4791,256 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="10">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11">
-        <v>6</v>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>11.7</v>
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="12">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0.9</v>
+      <c r="B4" s="10">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="12">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11">
-        <v>24.9</v>
+      <c r="B5" s="10">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="10">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11">
-        <v>22.36</v>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11">
-        <v>19.350000000000001</v>
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="12">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11">
-        <v>3.44</v>
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="12">
-        <v>6</v>
-      </c>
-      <c r="C9" s="11">
-        <v>3.87</v>
+      <c r="B9" s="10">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="12">
-        <v>3</v>
-      </c>
-      <c r="C10" s="11">
-        <v>18.920000000000002</v>
+      <c r="B10" s="10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11">
-        <v>8.82</v>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11">
-        <v>28.6</v>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="12">
-        <v>3</v>
-      </c>
-      <c r="C13" s="11">
-        <v>37.4</v>
+      <c r="B13" s="10">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11">
-        <v>11.22</v>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="10">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11">
-        <v>8.7200000000000006</v>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="10">
-        <v>2</v>
-      </c>
-      <c r="C16" s="11">
-        <v>3.12</v>
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="10">
-        <v>2</v>
-      </c>
-      <c r="C17" s="11">
-        <v>21.6</v>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="12">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11">
-        <v>52.65</v>
+      <c r="B18" s="10">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D18" xr:uid="{654EED24-1FAE-41A9-A3DE-F7107863F549}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -5006,7 +5049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC05F44C-58EE-43C2-B351-6A8EB9E80087}">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\Otimizacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A951CCEF-0233-41AD-B5E0-C763F07008D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2A3A26-AD3E-4434-B160-062DEAD95A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
@@ -21,7 +21,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Atual!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Vibração!$A$1:$D$18</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -323,18 +322,6 @@
     <t>RK</t>
   </si>
   <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>11.70</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>24.90</t>
-  </si>
-  <si>
     <t>22.36</t>
   </si>
   <si>
@@ -365,13 +352,25 @@
     <t>3.12</t>
   </si>
   <si>
-    <t>19.20</t>
-  </si>
-  <si>
-    <t>24.44</t>
-  </si>
-  <si>
-    <t>46.80</t>
+    <t>10.92</t>
+  </si>
+  <si>
+    <t>5.60</t>
+  </si>
+  <si>
+    <t>23.24</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>21.62</t>
+  </si>
+  <si>
+    <t>37.45</t>
+  </si>
+  <si>
+    <t>16.80</t>
   </si>
 </sst>
 </file>
@@ -450,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -473,9 +472,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4777,7 +4773,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4809,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4823,7 +4819,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4837,7 +4833,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4851,77 +4847,77 @@
         <v>6</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="10">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="10">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="10">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="10">
-        <v>4</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="B10" s="10">
         <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4935,35 +4931,35 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B13" s="10">
         <v>3</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4977,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -4991,7 +4987,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5005,42 +5001,41 @@
         <v>2</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>95</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="10">
-        <v>2</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>110</v>
-      </c>
       <c r="D18">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D18" xr:uid="{654EED24-1FAE-41A9-A3DE-F7107863F549}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\Otimizacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2A3A26-AD3E-4434-B160-062DEAD95A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC361C9-55DC-4CC3-B94E-A505037EA895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
@@ -367,10 +367,10 @@
     <t>21.62</t>
   </si>
   <si>
-    <t>37.45</t>
-  </si>
-  <si>
-    <t>16.80</t>
+    <t>40.66</t>
+  </si>
+  <si>
+    <t>18.24</t>
   </si>
 </sst>
 </file>
@@ -4773,7 +4773,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A20" sqref="A20:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\Otimizacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC361C9-55DC-4CC3-B94E-A505037EA895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6B4B09-2A9E-4602-8DDF-9A3FFE1552BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
@@ -322,6 +322,18 @@
     <t>RK</t>
   </si>
   <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>11.70</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>24.90</t>
+  </si>
+  <si>
     <t>22.36</t>
   </si>
   <si>
@@ -352,25 +364,13 @@
     <t>3.12</t>
   </si>
   <si>
-    <t>10.92</t>
-  </si>
-  <si>
-    <t>5.60</t>
-  </si>
-  <si>
-    <t>23.24</t>
-  </si>
-  <si>
-    <t>0.84</t>
+    <t>19.20</t>
   </si>
   <si>
     <t>21.62</t>
   </si>
   <si>
-    <t>40.66</t>
-  </si>
-  <si>
-    <t>18.24</t>
+    <t>42.80</t>
   </si>
 </sst>
 </file>
@@ -404,20 +404,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +434,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -464,16 +470,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -4773,7 +4779,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E42"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4801,11 +4807,11 @@
       <c r="A2" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>106</v>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4818,8 +4824,8 @@
       <c r="B3" s="10">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>107</v>
+      <c r="C3" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4832,8 +4838,8 @@
       <c r="B4" s="10">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>108</v>
+      <c r="C4" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4846,8 +4852,8 @@
       <c r="B5" s="10">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>109</v>
+      <c r="C5" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4857,11 +4863,11 @@
       <c r="A6" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>97</v>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4874,8 +4880,8 @@
       <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>96</v>
+      <c r="C7" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4888,8 +4894,8 @@
       <c r="B8" s="10">
         <v>3</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>100</v>
+      <c r="C8" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4902,8 +4908,8 @@
       <c r="B9" s="10">
         <v>4</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>98</v>
+      <c r="C9" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4916,22 +4922,22 @@
       <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>99</v>
+      <c r="C10" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>101</v>
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -4941,11 +4947,11 @@
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>110</v>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4958,50 +4964,50 @@
       <c r="B13" s="10">
         <v>3</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>102</v>
+      <c r="C13" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>103</v>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="8">
-        <v>2</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>104</v>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="8">
-        <v>2</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>105</v>
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -5011,11 +5017,11 @@
       <c r="A17" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="8">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>111</v>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5028,8 +5034,8 @@
       <c r="B18" s="10">
         <v>2</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>112</v>
+      <c r="C18" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="D18">
         <v>1</v>

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\Otimizacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6B4B09-2A9E-4602-8DDF-9A3FFE1552BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D2DA40-DD18-4FCB-9C44-509CE4ACB2F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
@@ -364,13 +364,13 @@
     <t>3.12</t>
   </si>
   <si>
-    <t>19.20</t>
-  </si>
-  <si>
     <t>21.62</t>
   </si>
   <si>
-    <t>42.80</t>
+    <t>48.15</t>
+  </si>
+  <si>
+    <t>21.60</t>
   </si>
 </sst>
 </file>
@@ -4779,7 +4779,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="P12" sqref="O12:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4951,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5021,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5035,7 +5035,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D18">
         <v>1</v>

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\Otimizacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D2DA40-DD18-4FCB-9C44-509CE4ACB2F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB50DF87-F66A-4418-B9C6-D7738A4A98C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
@@ -367,10 +367,10 @@
     <t>21.62</t>
   </si>
   <si>
-    <t>48.15</t>
-  </si>
-  <si>
-    <t>21.60</t>
+    <t>53.50</t>
+  </si>
+  <si>
+    <t>24.00</t>
   </si>
 </sst>
 </file>
@@ -404,20 +404,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,12 +434,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FF4472C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -470,16 +464,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -4779,7 +4773,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P12" sqref="O12:P12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4807,10 +4801,10 @@
       <c r="A2" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D2">
@@ -4824,7 +4818,7 @@
       <c r="B3" s="10">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D3">
@@ -4838,7 +4832,7 @@
       <c r="B4" s="10">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D4">
@@ -4852,7 +4846,7 @@
       <c r="B5" s="10">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D5">
@@ -4863,10 +4857,10 @@
       <c r="A6" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D6">
@@ -4880,7 +4874,7 @@
       <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>100</v>
       </c>
       <c r="D7">
@@ -4894,7 +4888,7 @@
       <c r="B8" s="10">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>104</v>
       </c>
       <c r="D8">
@@ -4908,7 +4902,7 @@
       <c r="B9" s="10">
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D9">
@@ -4922,7 +4916,7 @@
       <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>103</v>
       </c>
       <c r="D10">
@@ -4930,13 +4924,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>105</v>
       </c>
       <c r="D11">
@@ -4947,10 +4941,10 @@
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>110</v>
       </c>
       <c r="D12">
@@ -4964,7 +4958,7 @@
       <c r="B13" s="10">
         <v>3</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>106</v>
       </c>
       <c r="D13">
@@ -4972,13 +4966,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>107</v>
       </c>
       <c r="D14">
@@ -4986,13 +4980,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="9">
-        <v>2</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D15">
@@ -5000,13 +4994,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="9">
-        <v>2</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>109</v>
       </c>
       <c r="D16">
@@ -5017,10 +5011,10 @@
       <c r="A17" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="9">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D17">
@@ -5034,7 +5028,7 @@
       <c r="B18" s="10">
         <v>2</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D18">

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\Otimizacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB50DF87-F66A-4418-B9C6-D7738A4A98C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD9195D-B4B1-480F-B891-FB4036FAE605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
@@ -364,13 +364,13 @@
     <t>3.12</t>
   </si>
   <si>
-    <t>21.62</t>
-  </si>
-  <si>
-    <t>53.50</t>
-  </si>
-  <si>
-    <t>24.00</t>
+    <t>24.44</t>
+  </si>
+  <si>
+    <t>21.60</t>
+  </si>
+  <si>
+    <t>52.65</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +402,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Arial Unicode MS"/>
     </font>
     <font>
       <b/>
@@ -449,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -465,15 +470,24 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -796,13 +810,13 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,7 +830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>26</v>
       </c>
@@ -830,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>77</v>
       </c>
@@ -844,7 +858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>84</v>
       </c>
@@ -858,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -872,7 +886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>112</v>
       </c>
@@ -886,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>124</v>
       </c>
@@ -900,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>165</v>
       </c>
@@ -914,7 +928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>229</v>
       </c>
@@ -928,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>252</v>
       </c>
@@ -942,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>262</v>
       </c>
@@ -956,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>297</v>
       </c>
@@ -970,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>310</v>
       </c>
@@ -984,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>314</v>
       </c>
@@ -998,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>323</v>
       </c>
@@ -1012,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>367</v>
       </c>
@@ -1026,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>383</v>
       </c>
@@ -1040,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>473</v>
       </c>
@@ -1054,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>477</v>
       </c>
@@ -1068,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>479</v>
       </c>
@@ -1082,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>497</v>
       </c>
@@ -1096,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>523</v>
       </c>
@@ -1110,7 +1124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>601</v>
       </c>
@@ -1124,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>608</v>
       </c>
@@ -1138,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>631</v>
       </c>
@@ -1152,7 +1166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>646</v>
       </c>
@@ -1166,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>647</v>
       </c>
@@ -1180,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>648</v>
       </c>
@@ -1194,7 +1208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>649</v>
       </c>
@@ -1208,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>650</v>
       </c>
@@ -1222,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>652</v>
       </c>
@@ -1236,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>719</v>
       </c>
@@ -1250,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>720</v>
       </c>
@@ -1264,7 +1278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>732</v>
       </c>
@@ -1278,7 +1292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>781</v>
       </c>
@@ -1292,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>782</v>
       </c>
@@ -1306,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>783</v>
       </c>
@@ -1320,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>784</v>
       </c>
@@ -1334,7 +1348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>785</v>
       </c>
@@ -1348,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>786</v>
       </c>
@@ -1362,7 +1376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>787</v>
       </c>
@@ -1376,7 +1390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>789</v>
       </c>
@@ -1390,7 +1404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>790</v>
       </c>
@@ -1404,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>791</v>
       </c>
@@ -1418,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>792</v>
       </c>
@@ -1432,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>793</v>
       </c>
@@ -1446,7 +1460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>794</v>
       </c>
@@ -1460,7 +1474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>795</v>
       </c>
@@ -1474,7 +1488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>796</v>
       </c>
@@ -1488,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>797</v>
       </c>
@@ -1502,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>798</v>
       </c>
@@ -1516,7 +1530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>799</v>
       </c>
@@ -1530,7 +1544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>800</v>
       </c>
@@ -1544,7 +1558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>801</v>
       </c>
@@ -1558,7 +1572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>802</v>
       </c>
@@ -1572,7 +1586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>831</v>
       </c>
@@ -1586,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>832</v>
       </c>
@@ -1600,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>852</v>
       </c>
@@ -1614,7 +1628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>853</v>
       </c>
@@ -1628,7 +1642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>857</v>
       </c>
@@ -1642,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>953</v>
       </c>
@@ -1656,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>1042</v>
       </c>
@@ -1670,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>1043</v>
       </c>
@@ -1684,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>1106</v>
       </c>
@@ -1698,7 +1712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>1107</v>
       </c>
@@ -1712,7 +1726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>1108</v>
       </c>
@@ -1726,7 +1740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>1109</v>
       </c>
@@ -1740,7 +1754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>1110</v>
       </c>
@@ -1754,7 +1768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>1111</v>
       </c>
@@ -1768,7 +1782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>1112</v>
       </c>
@@ -1782,7 +1796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>1295</v>
       </c>
@@ -1796,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>1456</v>
       </c>
@@ -1810,7 +1824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>1492</v>
       </c>
@@ -1824,7 +1838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>1511</v>
       </c>
@@ -1838,7 +1852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>1512</v>
       </c>
@@ -1852,7 +1866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>1513</v>
       </c>
@@ -1866,7 +1880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>1514</v>
       </c>
@@ -1880,7 +1894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>1515</v>
       </c>
@@ -1894,7 +1908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>1517</v>
       </c>
@@ -1908,7 +1922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>1518</v>
       </c>
@@ -1922,7 +1936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>1519</v>
       </c>
@@ -1936,7 +1950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>1835</v>
       </c>
@@ -1950,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>1894</v>
       </c>
@@ -1964,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>1895</v>
       </c>
@@ -1978,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>1922</v>
       </c>
@@ -1992,7 +2006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>1943</v>
       </c>
@@ -2006,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>1948</v>
       </c>
@@ -2020,7 +2034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>1949</v>
       </c>
@@ -2034,7 +2048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>1950</v>
       </c>
@@ -2048,7 +2062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>1951</v>
       </c>
@@ -2062,7 +2076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>1952</v>
       </c>
@@ -2076,7 +2090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>1953</v>
       </c>
@@ -2090,7 +2104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>1954</v>
       </c>
@@ -2104,7 +2118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>1955</v>
       </c>
@@ -2118,7 +2132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>2263</v>
       </c>
@@ -2132,7 +2146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>2276</v>
       </c>
@@ -2146,7 +2160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>2294</v>
       </c>
@@ -2160,7 +2174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>2428</v>
       </c>
@@ -2174,7 +2188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>2507</v>
       </c>
@@ -2188,7 +2202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>2508</v>
       </c>
@@ -2202,7 +2216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>2521</v>
       </c>
@@ -2216,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>2522</v>
       </c>
@@ -2230,7 +2244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>2523</v>
       </c>
@@ -2244,7 +2258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>2524</v>
       </c>
@@ -2258,7 +2272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>2525</v>
       </c>
@@ -2272,7 +2286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>2526</v>
       </c>
@@ -2286,7 +2300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>2527</v>
       </c>
@@ -2300,7 +2314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>2528</v>
       </c>
@@ -2314,7 +2328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>2529</v>
       </c>
@@ -2328,7 +2342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>2530</v>
       </c>
@@ -2342,7 +2356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>2531</v>
       </c>
@@ -2356,7 +2370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
         <v>2532</v>
       </c>
@@ -2370,7 +2384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
         <v>2533</v>
       </c>
@@ -2384,7 +2398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>2534</v>
       </c>
@@ -2398,7 +2412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
         <v>2535</v>
       </c>
@@ -2412,7 +2426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
         <v>2537</v>
       </c>
@@ -2426,7 +2440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" s="1">
         <v>2538</v>
       </c>
@@ -2440,7 +2454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
         <v>2539</v>
       </c>
@@ -2454,7 +2468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="1">
         <v>2540</v>
       </c>
@@ -2468,7 +2482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>2541</v>
       </c>
@@ -2482,7 +2496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
         <v>2542</v>
       </c>
@@ -2496,7 +2510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
         <v>2543</v>
       </c>
@@ -2510,7 +2524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" s="1">
         <v>4192</v>
       </c>
@@ -2524,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
         <v>4193</v>
       </c>
@@ -2538,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="1">
         <v>4194</v>
       </c>
@@ -2552,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
         <v>4251</v>
       </c>
@@ -2566,7 +2580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" s="1">
         <v>4252</v>
       </c>
@@ -2580,7 +2594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" s="1">
         <v>4254</v>
       </c>
@@ -2594,7 +2608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" s="1">
         <v>4255</v>
       </c>
@@ -2608,7 +2622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" s="1">
         <v>4256</v>
       </c>
@@ -2622,7 +2636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" s="1">
         <v>4257</v>
       </c>
@@ -2636,7 +2650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" s="1">
         <v>4258</v>
       </c>
@@ -2650,7 +2664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" s="1">
         <v>4259</v>
       </c>
@@ -2664,7 +2678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" s="1">
         <v>4272</v>
       </c>
@@ -2678,7 +2692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" s="1">
         <v>8264</v>
       </c>
@@ -2692,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" s="1">
         <v>8847</v>
       </c>
@@ -2706,7 +2720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" s="1">
         <v>8848</v>
       </c>
@@ -2720,7 +2734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" s="1">
         <v>8851</v>
       </c>
@@ -2734,7 +2748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" s="1">
         <v>8852</v>
       </c>
@@ -2748,7 +2762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" s="1">
         <v>8857</v>
       </c>
@@ -2762,7 +2776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" s="1">
         <v>8858</v>
       </c>
@@ -2776,7 +2790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" s="1">
         <v>8861</v>
       </c>
@@ -2790,7 +2804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" s="1">
         <v>8862</v>
       </c>
@@ -2804,7 +2818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" s="1">
         <v>8863</v>
       </c>
@@ -2818,7 +2832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" s="1">
         <v>8865</v>
       </c>
@@ -2832,7 +2846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" s="1">
         <v>8931</v>
       </c>
@@ -2846,7 +2860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" s="1">
         <v>8932</v>
       </c>
@@ -2860,7 +2874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" s="1">
         <v>9011</v>
       </c>
@@ -2874,7 +2888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" s="1">
         <v>9012</v>
       </c>
@@ -2888,7 +2902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" s="1">
         <v>9013</v>
       </c>
@@ -2902,7 +2916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" s="1">
         <v>9031</v>
       </c>
@@ -2916,7 +2930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" s="1">
         <v>9032</v>
       </c>
@@ -2930,7 +2944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" s="1">
         <v>9033</v>
       </c>
@@ -2944,7 +2958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154" s="1">
         <v>9034</v>
       </c>
@@ -2958,7 +2972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" s="1">
         <v>9161</v>
       </c>
@@ -2972,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" s="1">
         <v>9162</v>
       </c>
@@ -2986,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" s="1">
         <v>9163</v>
       </c>
@@ -3000,7 +3014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" s="1">
         <v>9164</v>
       </c>
@@ -3014,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159" s="1">
         <v>9519</v>
       </c>
@@ -3028,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="A160" s="1">
         <v>9648</v>
       </c>
@@ -3042,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4">
       <c r="A161" s="1">
         <v>9841</v>
       </c>
@@ -3056,7 +3070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4">
       <c r="A162" s="1">
         <v>11407</v>
       </c>
@@ -3070,7 +3084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4">
       <c r="A163" s="1">
         <v>11471</v>
       </c>
@@ -3084,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4">
       <c r="A164" s="1">
         <v>13121</v>
       </c>
@@ -3098,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4">
       <c r="A165" s="1">
         <v>13151</v>
       </c>
@@ -3112,7 +3126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4">
       <c r="A166" s="1">
         <v>13335</v>
       </c>
@@ -3126,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4">
       <c r="A167" s="1">
         <v>13472</v>
       </c>
@@ -3140,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4">
       <c r="A168" s="1">
         <v>13491</v>
       </c>
@@ -3154,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4">
       <c r="A169" s="1">
         <v>13492</v>
       </c>
@@ -3168,7 +3182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4">
       <c r="A170" s="1">
         <v>13723</v>
       </c>
@@ -3182,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4">
       <c r="A171" s="1">
         <v>15341</v>
       </c>
@@ -3196,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4">
       <c r="A172" s="1">
         <v>15342</v>
       </c>
@@ -3210,7 +3224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4">
       <c r="A173" s="1">
         <v>15343</v>
       </c>
@@ -3237,7 +3251,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
@@ -3245,7 +3259,7 @@
     <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3259,7 +3273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>77</v>
       </c>
@@ -3273,7 +3287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="5">
         <v>103</v>
       </c>
@@ -3287,7 +3301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>165</v>
       </c>
@@ -3301,7 +3315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="5">
         <v>367</v>
       </c>
@@ -3315,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>479</v>
       </c>
@@ -3329,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="5">
         <v>523</v>
       </c>
@@ -3343,7 +3357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>631</v>
       </c>
@@ -3357,7 +3371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="5">
         <v>719</v>
       </c>
@@ -3371,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="4">
         <v>720</v>
       </c>
@@ -3385,7 +3399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="5">
         <v>732</v>
       </c>
@@ -3399,7 +3413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="4">
         <v>781</v>
       </c>
@@ -3413,7 +3427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="5">
         <v>782</v>
       </c>
@@ -3427,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="4">
         <v>783</v>
       </c>
@@ -3441,7 +3455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="5">
         <v>784</v>
       </c>
@@ -3455,7 +3469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="4">
         <v>785</v>
       </c>
@@ -3469,7 +3483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="5">
         <v>786</v>
       </c>
@@ -3483,7 +3497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="4">
         <v>787</v>
       </c>
@@ -3497,7 +3511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="5">
         <v>789</v>
       </c>
@@ -3511,7 +3525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="4">
         <v>790</v>
       </c>
@@ -3525,7 +3539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="5">
         <v>791</v>
       </c>
@@ -3539,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="4">
         <v>792</v>
       </c>
@@ -3553,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="5">
         <v>793</v>
       </c>
@@ -3567,7 +3581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="4">
         <v>794</v>
       </c>
@@ -3581,7 +3595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="5">
         <v>795</v>
       </c>
@@ -3595,7 +3609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="4">
         <v>796</v>
       </c>
@@ -3609,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="5">
         <v>797</v>
       </c>
@@ -3623,7 +3637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="4">
         <v>798</v>
       </c>
@@ -3637,7 +3651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="5">
         <v>799</v>
       </c>
@@ -3651,7 +3665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="4">
         <v>800</v>
       </c>
@@ -3665,7 +3679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="5">
         <v>801</v>
       </c>
@@ -3679,7 +3693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="4">
         <v>802</v>
       </c>
@@ -3693,7 +3707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="5">
         <v>852</v>
       </c>
@@ -3707,7 +3721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="4">
         <v>853</v>
       </c>
@@ -3721,7 +3735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="5">
         <v>857</v>
       </c>
@@ -3735,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="4">
         <v>953</v>
       </c>
@@ -3749,7 +3763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="5">
         <v>1106</v>
       </c>
@@ -3763,7 +3777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="4">
         <v>1107</v>
       </c>
@@ -3777,7 +3791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="5">
         <v>1108</v>
       </c>
@@ -3791,7 +3805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="4">
         <v>1109</v>
       </c>
@@ -3805,7 +3819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="5">
         <v>1110</v>
       </c>
@@ -3819,7 +3833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="4">
         <v>1111</v>
       </c>
@@ -3833,7 +3847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="5">
         <v>1112</v>
       </c>
@@ -3847,7 +3861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="4">
         <v>1456</v>
       </c>
@@ -3861,7 +3875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="5">
         <v>1492</v>
       </c>
@@ -3875,7 +3889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="4">
         <v>1511</v>
       </c>
@@ -3889,7 +3903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="5">
         <v>1512</v>
       </c>
@@ -3903,7 +3917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="4">
         <v>1513</v>
       </c>
@@ -3917,7 +3931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="5">
         <v>1514</v>
       </c>
@@ -3931,7 +3945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="4">
         <v>1515</v>
       </c>
@@ -3945,7 +3959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="5">
         <v>1517</v>
       </c>
@@ -3959,7 +3973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="4">
         <v>1518</v>
       </c>
@@ -3973,7 +3987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="5">
         <v>1519</v>
       </c>
@@ -3987,7 +4001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="4">
         <v>1835</v>
       </c>
@@ -4001,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="5">
         <v>1922</v>
       </c>
@@ -4015,7 +4029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="4">
         <v>1943</v>
       </c>
@@ -4029,7 +4043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="5">
         <v>1948</v>
       </c>
@@ -4043,7 +4057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="4">
         <v>1949</v>
       </c>
@@ -4057,7 +4071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="5">
         <v>1950</v>
       </c>
@@ -4071,7 +4085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="4">
         <v>1951</v>
       </c>
@@ -4085,7 +4099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="5">
         <v>1952</v>
       </c>
@@ -4099,7 +4113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="4">
         <v>1953</v>
       </c>
@@ -4113,7 +4127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="5">
         <v>1954</v>
       </c>
@@ -4127,7 +4141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="4">
         <v>1955</v>
       </c>
@@ -4141,7 +4155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="5">
         <v>2263</v>
       </c>
@@ -4155,7 +4169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="4">
         <v>2428</v>
       </c>
@@ -4169,7 +4183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="5">
         <v>2507</v>
       </c>
@@ -4183,7 +4197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="4">
         <v>2508</v>
       </c>
@@ -4197,7 +4211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="5">
         <v>4192</v>
       </c>
@@ -4211,7 +4225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="4">
         <v>4193</v>
       </c>
@@ -4225,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="5">
         <v>4194</v>
       </c>
@@ -4239,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="4">
         <v>4251</v>
       </c>
@@ -4253,7 +4267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="5">
         <v>4252</v>
       </c>
@@ -4267,7 +4281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="4">
         <v>4254</v>
       </c>
@@ -4281,7 +4295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="5">
         <v>4255</v>
       </c>
@@ -4295,7 +4309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="4">
         <v>4256</v>
       </c>
@@ -4309,7 +4323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="5">
         <v>4257</v>
       </c>
@@ -4323,7 +4337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="4">
         <v>4258</v>
       </c>
@@ -4337,7 +4351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="5">
         <v>4259</v>
       </c>
@@ -4351,7 +4365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="4">
         <v>4272</v>
       </c>
@@ -4365,7 +4379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="5">
         <v>8264</v>
       </c>
@@ -4379,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="4">
         <v>8847</v>
       </c>
@@ -4393,7 +4407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="5">
         <v>8848</v>
       </c>
@@ -4407,7 +4421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="4">
         <v>8851</v>
       </c>
@@ -4421,7 +4435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="5">
         <v>8852</v>
       </c>
@@ -4435,7 +4449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="4">
         <v>8857</v>
       </c>
@@ -4449,7 +4463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="5">
         <v>8858</v>
       </c>
@@ -4463,7 +4477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="4">
         <v>8861</v>
       </c>
@@ -4477,7 +4491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="5">
         <v>8862</v>
       </c>
@@ -4491,7 +4505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="4">
         <v>8863</v>
       </c>
@@ -4505,7 +4519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="5">
         <v>8865</v>
       </c>
@@ -4519,7 +4533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="4">
         <v>8931</v>
       </c>
@@ -4533,7 +4547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="5">
         <v>8932</v>
       </c>
@@ -4547,7 +4561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="4">
         <v>9161</v>
       </c>
@@ -4561,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="5">
         <v>9162</v>
       </c>
@@ -4575,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="4">
         <v>9163</v>
       </c>
@@ -4589,7 +4603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="5">
         <v>9164</v>
       </c>
@@ -4603,7 +4617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="4">
         <v>9841</v>
       </c>
@@ -4617,7 +4631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="5">
         <v>11471</v>
       </c>
@@ -4631,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="4">
         <v>13121</v>
       </c>
@@ -4645,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="5">
         <v>13151</v>
       </c>
@@ -4659,7 +4673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="4">
         <v>13335</v>
       </c>
@@ -4673,7 +4687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="5">
         <v>13472</v>
       </c>
@@ -4687,7 +4701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="4">
         <v>13491</v>
       </c>
@@ -4701,7 +4715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="5">
         <v>13492</v>
       </c>
@@ -4715,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="4">
         <v>13723</v>
       </c>
@@ -4729,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="5">
         <v>15342</v>
       </c>
@@ -4743,7 +4757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="4">
         <v>15343</v>
       </c>
@@ -4757,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4770,20 +4784,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD783050-EDB5-4AA1-B656-595D1DCBADC5}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="N45" sqref="A21:N45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4797,245 +4811,413 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>97</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="10">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>96</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="10">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>99</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="10">
-        <v>6</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="12">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>101</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="10">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="12">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="10">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="12">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>104</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="10">
-        <v>4</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="12">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="10">
-        <v>6</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="12">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>103</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>105</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>110</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="10">
-        <v>3</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="12">
+        <v>3</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>106</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>107</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="8">
-        <v>2</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="10">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>108</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="8">
-        <v>2</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="10">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>109</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="8">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="12">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="10">
-        <v>2</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="D18">
         <v>1</v>
       </c>
     </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="13"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="13"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="13"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="13"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="13"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="13"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="13"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="11"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="13"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="13"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="13"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="11"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="13"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="13"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="11"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="F43" s="13"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="11"/>
+    </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A41:A42"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -5048,7 +5230,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
@@ -5056,7 +5238,7 @@
     <col min="4" max="4" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5070,7 +5252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>26</v>
       </c>
@@ -5084,7 +5266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>77</v>
       </c>
@@ -5098,7 +5280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>84</v>
       </c>
@@ -5112,7 +5294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -5126,7 +5308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>112</v>
       </c>
@@ -5140,7 +5322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>124</v>
       </c>
@@ -5154,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>165</v>
       </c>
@@ -5168,7 +5350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>229</v>
       </c>
@@ -5182,7 +5364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>252</v>
       </c>
@@ -5196,7 +5378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>262</v>
       </c>
@@ -5210,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>297</v>
       </c>
@@ -5224,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>310</v>
       </c>
@@ -5238,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>314</v>
       </c>
@@ -5252,7 +5434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>323</v>
       </c>
@@ -5266,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>367</v>
       </c>
@@ -5280,7 +5462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>383</v>
       </c>
@@ -5294,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>473</v>
       </c>
@@ -5308,7 +5490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>477</v>
       </c>
@@ -5322,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>479</v>
       </c>
@@ -5336,7 +5518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>497</v>
       </c>
@@ -5350,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>523</v>
       </c>
@@ -5364,7 +5546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>601</v>
       </c>
@@ -5378,7 +5560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>608</v>
       </c>
@@ -5392,7 +5574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>631</v>
       </c>
@@ -5406,7 +5588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>646</v>
       </c>
@@ -5420,7 +5602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>647</v>
       </c>
@@ -5434,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>648</v>
       </c>
@@ -5448,7 +5630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>649</v>
       </c>
@@ -5462,7 +5644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>650</v>
       </c>
@@ -5476,7 +5658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>652</v>
       </c>
@@ -5490,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>719</v>
       </c>
@@ -5504,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>720</v>
       </c>
@@ -5518,7 +5700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>732</v>
       </c>
@@ -5532,7 +5714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>781</v>
       </c>
@@ -5546,7 +5728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>782</v>
       </c>
@@ -5560,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>783</v>
       </c>
@@ -5574,7 +5756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>784</v>
       </c>
@@ -5588,7 +5770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>785</v>
       </c>
@@ -5602,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>786</v>
       </c>
@@ -5616,7 +5798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>787</v>
       </c>
@@ -5630,7 +5812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>789</v>
       </c>
@@ -5644,7 +5826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>790</v>
       </c>
@@ -5658,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>791</v>
       </c>
@@ -5672,7 +5854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>792</v>
       </c>
@@ -5686,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>793</v>
       </c>
@@ -5700,7 +5882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>794</v>
       </c>
@@ -5714,7 +5896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>795</v>
       </c>
@@ -5728,7 +5910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>796</v>
       </c>
@@ -5742,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>797</v>
       </c>
@@ -5756,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>798</v>
       </c>
@@ -5770,7 +5952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>799</v>
       </c>
@@ -5784,7 +5966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>800</v>
       </c>
@@ -5798,7 +5980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>801</v>
       </c>
@@ -5812,7 +5994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>802</v>
       </c>
@@ -5826,7 +6008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>831</v>
       </c>
@@ -5840,7 +6022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>832</v>
       </c>
@@ -5854,7 +6036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>852</v>
       </c>
@@ -5868,7 +6050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>853</v>
       </c>
@@ -5882,7 +6064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>857</v>
       </c>
@@ -5896,7 +6078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>953</v>
       </c>
@@ -5910,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>1042</v>
       </c>
@@ -5924,7 +6106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>1043</v>
       </c>
@@ -5938,7 +6120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>1106</v>
       </c>
@@ -5952,7 +6134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>1107</v>
       </c>
@@ -5966,7 +6148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>1108</v>
       </c>
@@ -5980,7 +6162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>1109</v>
       </c>
@@ -5994,7 +6176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>1110</v>
       </c>
@@ -6008,7 +6190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>1111</v>
       </c>
@@ -6022,7 +6204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>1112</v>
       </c>
@@ -6036,7 +6218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>1295</v>
       </c>
@@ -6050,7 +6232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>1456</v>
       </c>
@@ -6064,7 +6246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>1492</v>
       </c>
@@ -6078,7 +6260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>1511</v>
       </c>
@@ -6092,7 +6274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>1512</v>
       </c>
@@ -6106,7 +6288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>1513</v>
       </c>
@@ -6120,7 +6302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>1514</v>
       </c>
@@ -6134,7 +6316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>1515</v>
       </c>
@@ -6148,7 +6330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>1517</v>
       </c>
@@ -6162,7 +6344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>1518</v>
       </c>
@@ -6176,7 +6358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>1519</v>
       </c>
@@ -6190,7 +6372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>1835</v>
       </c>
@@ -6204,7 +6386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>1894</v>
       </c>
@@ -6218,7 +6400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>1895</v>
       </c>
@@ -6232,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>1922</v>
       </c>
@@ -6246,7 +6428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>1943</v>
       </c>
@@ -6260,7 +6442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>1948</v>
       </c>
@@ -6274,7 +6456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>1949</v>
       </c>
@@ -6288,7 +6470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>1950</v>
       </c>
@@ -6302,7 +6484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>1951</v>
       </c>
@@ -6316,7 +6498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>1952</v>
       </c>
@@ -6330,7 +6512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>1953</v>
       </c>
@@ -6344,7 +6526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>1954</v>
       </c>
@@ -6358,7 +6540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>1955</v>
       </c>
@@ -6372,7 +6554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>2263</v>
       </c>
@@ -6386,7 +6568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>2276</v>
       </c>
@@ -6400,7 +6582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>2294</v>
       </c>
@@ -6414,7 +6596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>2428</v>
       </c>
@@ -6428,7 +6610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>2507</v>
       </c>
@@ -6442,7 +6624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>2508</v>
       </c>
@@ -6456,7 +6638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>2521</v>
       </c>
@@ -6470,7 +6652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>2522</v>
       </c>
@@ -6484,7 +6666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>2523</v>
       </c>
@@ -6498,7 +6680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>2524</v>
       </c>
@@ -6512,7 +6694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>2525</v>
       </c>
@@ -6526,7 +6708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>2526</v>
       </c>
@@ -6540,7 +6722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>2527</v>
       </c>
@@ -6554,7 +6736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>2528</v>
       </c>
@@ -6568,7 +6750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>2529</v>
       </c>
@@ -6582,7 +6764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>2530</v>
       </c>
@@ -6596,7 +6778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>2531</v>
       </c>
@@ -6610,7 +6792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
         <v>2532</v>
       </c>
@@ -6624,7 +6806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
         <v>2533</v>
       </c>
@@ -6638,7 +6820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>2534</v>
       </c>
@@ -6652,7 +6834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
         <v>2535</v>
       </c>
@@ -6666,7 +6848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
         <v>2537</v>
       </c>
@@ -6680,7 +6862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" s="1">
         <v>2538</v>
       </c>
@@ -6694,7 +6876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
         <v>2539</v>
       </c>
@@ -6708,7 +6890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="1">
         <v>2540</v>
       </c>
@@ -6722,7 +6904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>2541</v>
       </c>
@@ -6736,7 +6918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
         <v>2542</v>
       </c>
@@ -6750,7 +6932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
         <v>2543</v>
       </c>
@@ -6764,7 +6946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" s="1">
         <v>4192</v>
       </c>
@@ -6778,7 +6960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
         <v>4193</v>
       </c>
@@ -6792,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="1">
         <v>4194</v>
       </c>
@@ -6806,7 +6988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
         <v>4251</v>
       </c>
@@ -6820,7 +7002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" s="1">
         <v>4252</v>
       </c>
@@ -6834,7 +7016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" s="1">
         <v>4254</v>
       </c>
@@ -6848,7 +7030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" s="1">
         <v>4255</v>
       </c>
@@ -6862,7 +7044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" s="1">
         <v>4256</v>
       </c>
@@ -6876,7 +7058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" s="1">
         <v>4257</v>
       </c>
@@ -6890,7 +7072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" s="1">
         <v>4258</v>
       </c>
@@ -6904,7 +7086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" s="1">
         <v>4259</v>
       </c>
@@ -6918,7 +7100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" s="1">
         <v>4272</v>
       </c>
@@ -6932,7 +7114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" s="1">
         <v>8264</v>
       </c>
@@ -6946,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" s="1">
         <v>8847</v>
       </c>
@@ -6960,7 +7142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" s="1">
         <v>8848</v>
       </c>
@@ -6974,7 +7156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" s="1">
         <v>8851</v>
       </c>
@@ -6988,7 +7170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" s="1">
         <v>8852</v>
       </c>
@@ -7002,7 +7184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" s="1">
         <v>8857</v>
       </c>
@@ -7016,7 +7198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" s="1">
         <v>8858</v>
       </c>
@@ -7030,7 +7212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" s="1">
         <v>8861</v>
       </c>
@@ -7044,7 +7226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" s="1">
         <v>8862</v>
       </c>
@@ -7058,7 +7240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" s="1">
         <v>8863</v>
       </c>
@@ -7072,7 +7254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" s="1">
         <v>8865</v>
       </c>
@@ -7086,7 +7268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" s="1">
         <v>8931</v>
       </c>
@@ -7100,7 +7282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" s="1">
         <v>8932</v>
       </c>
@@ -7114,7 +7296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" s="1">
         <v>9011</v>
       </c>
@@ -7128,7 +7310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" s="1">
         <v>9012</v>
       </c>
@@ -7142,7 +7324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" s="1">
         <v>9013</v>
       </c>
@@ -7156,7 +7338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" s="1">
         <v>9031</v>
       </c>
@@ -7170,7 +7352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" s="1">
         <v>9032</v>
       </c>
@@ -7184,7 +7366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" s="1">
         <v>9033</v>
       </c>
@@ -7198,7 +7380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154" s="1">
         <v>9034</v>
       </c>
@@ -7212,7 +7394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" s="1">
         <v>9161</v>
       </c>
@@ -7226,7 +7408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" s="1">
         <v>9162</v>
       </c>
@@ -7240,7 +7422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" s="1">
         <v>9163</v>
       </c>
@@ -7254,7 +7436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" s="1">
         <v>9164</v>
       </c>
@@ -7268,7 +7450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159" s="1">
         <v>9519</v>
       </c>
@@ -7282,7 +7464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="A160" s="1">
         <v>9648</v>
       </c>
@@ -7296,7 +7478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4">
       <c r="A161" s="1">
         <v>9841</v>
       </c>
@@ -7310,7 +7492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4">
       <c r="A162" s="1">
         <v>11407</v>
       </c>
@@ -7324,7 +7506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4">
       <c r="A163" s="1">
         <v>11471</v>
       </c>
@@ -7338,7 +7520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4">
       <c r="A164" s="1">
         <v>13121</v>
       </c>
@@ -7352,7 +7534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4">
       <c r="A165" s="1">
         <v>13151</v>
       </c>
@@ -7366,7 +7548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4">
       <c r="A166" s="1">
         <v>13335</v>
       </c>
@@ -7380,7 +7562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4">
       <c r="A167" s="1">
         <v>13472</v>
       </c>
@@ -7394,7 +7576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4">
       <c r="A168" s="1">
         <v>13491</v>
       </c>
@@ -7408,7 +7590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4">
       <c r="A169" s="1">
         <v>13492</v>
       </c>
@@ -7422,7 +7604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4">
       <c r="A170" s="1">
         <v>13723</v>
       </c>
@@ -7436,7 +7618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4">
       <c r="A171" s="1">
         <v>15341</v>
       </c>
@@ -7450,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4">
       <c r="A172" s="1">
         <v>15342</v>
       </c>
@@ -7464,7 +7646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4">
       <c r="A173" s="1">
         <v>15343</v>
       </c>
@@ -7492,7 +7674,7 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
@@ -7500,7 +7682,7 @@
     <col min="4" max="4" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7514,7 +7696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -7528,7 +7710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -7542,7 +7724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -7556,7 +7738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -7570,7 +7752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -7584,7 +7766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -7598,7 +7780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -7612,7 +7794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -7626,7 +7808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -7640,7 +7822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -7654,7 +7836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -7668,7 +7850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -7682,7 +7864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -7696,7 +7878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -7710,7 +7892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -7724,7 +7906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -7738,7 +7920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -7752,7 +7934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -7766,7 +7948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -7780,7 +7962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -7794,7 +7976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -7808,7 +7990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -7822,7 +8004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -7836,7 +8018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -7850,7 +8032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -7864,7 +8046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -7878,7 +8060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -7892,7 +8074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -7906,7 +8088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -7920,7 +8102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -7934,7 +8116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -7948,7 +8130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -7962,7 +8144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -7976,7 +8158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -7990,7 +8172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -8004,7 +8186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -8018,7 +8200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -8032,7 +8214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -8046,7 +8228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -8060,7 +8242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -8074,7 +8256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -8088,7 +8270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -8102,7 +8284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -8116,7 +8298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -8130,7 +8312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -8144,7 +8326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -8158,7 +8340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -8172,7 +8354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -8186,7 +8368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
@@ -8200,7 +8382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -8214,7 +8396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -8228,7 +8410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -8242,7 +8424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -8256,7 +8438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -8270,7 +8452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -8284,7 +8466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -8298,7 +8480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
@@ -8312,7 +8494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -8326,7 +8508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
@@ -8340,7 +8522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
@@ -8354,7 +8536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
@@ -8368,7 +8550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -8382,7 +8564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
@@ -8396,7 +8578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
@@ -8410,7 +8592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -8424,7 +8606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
@@ -8438,7 +8620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -8452,7 +8634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
@@ -8466,7 +8648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -8480,7 +8662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
@@ -8494,7 +8676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
@@ -8508,7 +8690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
@@ -8522,7 +8704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -8536,7 +8718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -8550,7 +8732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
@@ -8564,7 +8746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
@@ -8578,7 +8760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
@@ -8592,7 +8774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
@@ -8606,7 +8788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
@@ -8620,7 +8802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
@@ -8634,7 +8816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
@@ -8648,7 +8830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
@@ -8662,7 +8844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
@@ -8676,7 +8858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\Otimizacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD9195D-B4B1-480F-B891-FB4036FAE605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DC4B7C-EB55-48C7-AFCD-5E49B9222422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
   <si>
     <t>Atividade</t>
   </si>
@@ -320,57 +320,6 @@
   </si>
   <si>
     <t>RK</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>11.70</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>24.90</t>
-  </si>
-  <si>
-    <t>22.36</t>
-  </si>
-  <si>
-    <t>19.35</t>
-  </si>
-  <si>
-    <t>3.44</t>
-  </si>
-  <si>
-    <t>3.87</t>
-  </si>
-  <si>
-    <t>18.92</t>
-  </si>
-  <si>
-    <t>8.82</t>
-  </si>
-  <si>
-    <t>31.96</t>
-  </si>
-  <si>
-    <t>11.22</t>
-  </si>
-  <si>
-    <t>8.72</t>
-  </si>
-  <si>
-    <t>3.12</t>
-  </si>
-  <si>
-    <t>24.44</t>
-  </si>
-  <si>
-    <t>21.60</t>
-  </si>
-  <si>
-    <t>52.65</t>
   </si>
 </sst>
 </file>
@@ -454,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -469,6 +418,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -489,6 +441,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4787,425 +4751,426 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N45" sqref="A21:N45"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
+        <v>11.7</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="12">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="19">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="12">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="19">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16">
+        <v>24.9</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="12">
-        <v>6</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="19">
+        <v>6</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="D6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="12">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="19">
+        <v>2</v>
+      </c>
+      <c r="C7" s="16">
+        <v>22.36</v>
+      </c>
+      <c r="D7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="12">
-        <v>3</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="19">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="D8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="12">
-        <v>4</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="19">
+        <v>4</v>
+      </c>
+      <c r="C9" s="16">
+        <v>3.44</v>
+      </c>
+      <c r="D9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="12">
-        <v>6</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="19">
+        <v>6</v>
+      </c>
+      <c r="C10" s="16">
+        <v>3.87</v>
+      </c>
+      <c r="D10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16">
+        <v>8.82</v>
+      </c>
+      <c r="D11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="16">
+        <v>24.44</v>
+      </c>
+      <c r="D12" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="12">
-        <v>3</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="19">
+        <v>3</v>
+      </c>
+      <c r="C13" s="16">
+        <v>31.96</v>
+      </c>
+      <c r="D13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="18">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <v>11.22</v>
+      </c>
+      <c r="D14" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="10">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="18">
+        <v>2</v>
+      </c>
+      <c r="C15" s="16">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="D15" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="10">
-        <v>2</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="18">
+        <v>2</v>
+      </c>
+      <c r="C16" s="16">
+        <v>3.12</v>
+      </c>
+      <c r="D16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17">
+      <c r="B17" s="18">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16">
+        <v>52.65</v>
+      </c>
+      <c r="D17" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="12">
-        <v>2</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18">
+      <c r="B18" s="19">
+        <v>2</v>
+      </c>
+      <c r="C18" s="16">
+        <v>21.6</v>
+      </c>
+      <c r="D18" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8"/>
+      <c r="A23" s="9"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="F24" s="8"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="13"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="16"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="13"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="16"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="13"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="11"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="11"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="16"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="13"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="11"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="11"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="16"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="13"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="11"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="16"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="13"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="16"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="13"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="11"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="11"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="16"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="13"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="11"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="11"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="16"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="13"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="11"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="16"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="11"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="16"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="13"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="16"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="13"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="11"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="16"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="11"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="16"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="11"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="16"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="11"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="16"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="13"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="11"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="16"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="13"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="11"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="11"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="16"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="F43" s="13"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="11"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\Otimizacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DC4B7C-EB55-48C7-AFCD-5E49B9222422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEAEEEF-0947-4A35-B937-3580656FC223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -419,6 +419,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -448,11 +451,15 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4751,426 +4758,426 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="18">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17">
         <v>11.7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="19">
-        <v>2</v>
-      </c>
-      <c r="C3" s="16">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="20">
+        <v>2</v>
+      </c>
+      <c r="C3" s="17">
+        <v>6</v>
+      </c>
+      <c r="D3" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="19">
-        <v>3</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="20">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17">
         <v>24.9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="19">
-        <v>6</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="B5" s="20">
+        <v>6</v>
+      </c>
+      <c r="C5" s="17">
         <v>0.9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="18">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="B6" s="19">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17">
         <v>19.350000000000001</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="19">
-        <v>2</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="B7" s="20">
+        <v>2</v>
+      </c>
+      <c r="C7" s="17">
         <v>22.36</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="19">
-        <v>3</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B8" s="20">
+        <v>3</v>
+      </c>
+      <c r="C8" s="17">
         <v>18.920000000000002</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="19">
-        <v>4</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="B9" s="20">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17">
         <v>3.44</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="19">
-        <v>6</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="B10" s="20">
+        <v>6</v>
+      </c>
+      <c r="C10" s="17">
         <v>3.87</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="18">
-        <v>1</v>
-      </c>
-      <c r="C11" s="16">
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="17">
         <v>8.82</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="18">
-        <v>1</v>
-      </c>
-      <c r="C12" s="16">
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17">
         <v>24.44</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="19">
-        <v>3</v>
-      </c>
-      <c r="C13" s="16">
+      <c r="B13" s="20">
+        <v>3</v>
+      </c>
+      <c r="C13" s="17">
         <v>31.96</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="18">
-        <v>1</v>
-      </c>
-      <c r="C14" s="16">
+      <c r="B14" s="19">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17">
         <v>11.22</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="18">
-        <v>2</v>
-      </c>
-      <c r="C15" s="16">
+      <c r="B15" s="19">
+        <v>2</v>
+      </c>
+      <c r="C15" s="17">
         <v>8.7200000000000006</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="18">
-        <v>2</v>
-      </c>
-      <c r="C16" s="16">
+      <c r="B16" s="19">
+        <v>2</v>
+      </c>
+      <c r="C16" s="17">
         <v>3.12</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="18">
-        <v>1</v>
-      </c>
-      <c r="C17" s="16">
+      <c r="B17" s="19">
+        <v>1</v>
+      </c>
+      <c r="C17" s="17">
         <v>52.65</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="19">
-        <v>2</v>
-      </c>
-      <c r="C18" s="16">
+      <c r="B18" s="20">
+        <v>2</v>
+      </c>
+      <c r="C18" s="17">
         <v>21.6</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="10"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="F24" s="9"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="18"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="10"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="18"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="14"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="16"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="17"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="14"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="16"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="17"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="14"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="16"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="12"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="17"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="14"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="16"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="12"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="17"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="14"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="16"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="12"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="17"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="14"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="16"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="17"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="14"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="16"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="12"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="17"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="14"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="16"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="12"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="17"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="14"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="16"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="12"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="17"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="11"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="16"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="12"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="17"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="14"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="16"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="12"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="17"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="14"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="16"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="17"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="11"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="16"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="12"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="17"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="11"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="16"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="11"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="16"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="17"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="14"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="16"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="17"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="14"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="16"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="12"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="17"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="F43" s="14"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="12"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\Otimizacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEAEEEF-0947-4A35-B937-3580656FC223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4F1282-C9AC-4218-8ACB-8E08288DA27F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
@@ -329,7 +329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,11 +351,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF212121"/>
-      <name val="Arial Unicode MS"/>
     </font>
     <font>
       <b/>
@@ -403,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -425,42 +420,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,13 +755,13 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,7 +775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>26</v>
       </c>
@@ -815,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>77</v>
       </c>
@@ -829,7 +803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>84</v>
       </c>
@@ -843,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -857,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>112</v>
       </c>
@@ -871,7 +845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>124</v>
       </c>
@@ -885,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>165</v>
       </c>
@@ -899,7 +873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>229</v>
       </c>
@@ -913,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>252</v>
       </c>
@@ -927,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>262</v>
       </c>
@@ -941,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>297</v>
       </c>
@@ -955,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>310</v>
       </c>
@@ -969,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>314</v>
       </c>
@@ -983,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>323</v>
       </c>
@@ -997,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>367</v>
       </c>
@@ -1011,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>383</v>
       </c>
@@ -1025,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>473</v>
       </c>
@@ -1039,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>477</v>
       </c>
@@ -1053,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>479</v>
       </c>
@@ -1067,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>497</v>
       </c>
@@ -1081,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>523</v>
       </c>
@@ -1095,7 +1069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>601</v>
       </c>
@@ -1109,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>608</v>
       </c>
@@ -1123,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>631</v>
       </c>
@@ -1137,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>646</v>
       </c>
@@ -1151,7 +1125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>647</v>
       </c>
@@ -1165,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>648</v>
       </c>
@@ -1179,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>649</v>
       </c>
@@ -1193,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>650</v>
       </c>
@@ -1207,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>652</v>
       </c>
@@ -1221,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>719</v>
       </c>
@@ -1235,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>720</v>
       </c>
@@ -1249,7 +1223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>732</v>
       </c>
@@ -1263,7 +1237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>781</v>
       </c>
@@ -1277,7 +1251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>782</v>
       </c>
@@ -1291,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>783</v>
       </c>
@@ -1305,7 +1279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>784</v>
       </c>
@@ -1319,7 +1293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>785</v>
       </c>
@@ -1333,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>786</v>
       </c>
@@ -1347,7 +1321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>787</v>
       </c>
@@ -1361,7 +1335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>789</v>
       </c>
@@ -1375,7 +1349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>790</v>
       </c>
@@ -1389,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>791</v>
       </c>
@@ -1403,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>792</v>
       </c>
@@ -1417,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>793</v>
       </c>
@@ -1431,7 +1405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>794</v>
       </c>
@@ -1445,7 +1419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>795</v>
       </c>
@@ -1459,7 +1433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>796</v>
       </c>
@@ -1473,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>797</v>
       </c>
@@ -1487,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>798</v>
       </c>
@@ -1501,7 +1475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>799</v>
       </c>
@@ -1515,7 +1489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>800</v>
       </c>
@@ -1529,7 +1503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>801</v>
       </c>
@@ -1543,7 +1517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>802</v>
       </c>
@@ -1557,7 +1531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>831</v>
       </c>
@@ -1571,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>832</v>
       </c>
@@ -1585,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>852</v>
       </c>
@@ -1599,7 +1573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>853</v>
       </c>
@@ -1613,7 +1587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>857</v>
       </c>
@@ -1627,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>953</v>
       </c>
@@ -1641,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1042</v>
       </c>
@@ -1655,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1043</v>
       </c>
@@ -1669,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1106</v>
       </c>
@@ -1683,7 +1657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1107</v>
       </c>
@@ -1697,7 +1671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1108</v>
       </c>
@@ -1711,7 +1685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1109</v>
       </c>
@@ -1725,7 +1699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1110</v>
       </c>
@@ -1739,7 +1713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1111</v>
       </c>
@@ -1753,7 +1727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1112</v>
       </c>
@@ -1767,7 +1741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1295</v>
       </c>
@@ -1781,7 +1755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1456</v>
       </c>
@@ -1795,7 +1769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1492</v>
       </c>
@@ -1809,7 +1783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1511</v>
       </c>
@@ -1823,7 +1797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1512</v>
       </c>
@@ -1837,7 +1811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1513</v>
       </c>
@@ -1851,7 +1825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1514</v>
       </c>
@@ -1865,7 +1839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1515</v>
       </c>
@@ -1879,7 +1853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1517</v>
       </c>
@@ -1893,7 +1867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1518</v>
       </c>
@@ -1907,7 +1881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1519</v>
       </c>
@@ -1921,7 +1895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1835</v>
       </c>
@@ -1935,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1894</v>
       </c>
@@ -1949,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1895</v>
       </c>
@@ -1963,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1922</v>
       </c>
@@ -1977,7 +1951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1943</v>
       </c>
@@ -1991,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1948</v>
       </c>
@@ -2005,7 +1979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1949</v>
       </c>
@@ -2019,7 +1993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1950</v>
       </c>
@@ -2033,7 +2007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1951</v>
       </c>
@@ -2047,7 +2021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1952</v>
       </c>
@@ -2061,7 +2035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1953</v>
       </c>
@@ -2075,7 +2049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1954</v>
       </c>
@@ -2089,7 +2063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1955</v>
       </c>
@@ -2103,7 +2077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2263</v>
       </c>
@@ -2117,7 +2091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2276</v>
       </c>
@@ -2131,7 +2105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2294</v>
       </c>
@@ -2145,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2428</v>
       </c>
@@ -2159,7 +2133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2507</v>
       </c>
@@ -2173,7 +2147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2508</v>
       </c>
@@ -2187,7 +2161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2521</v>
       </c>
@@ -2201,7 +2175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2522</v>
       </c>
@@ -2215,7 +2189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2523</v>
       </c>
@@ -2229,7 +2203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2524</v>
       </c>
@@ -2243,7 +2217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2525</v>
       </c>
@@ -2257,7 +2231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2526</v>
       </c>
@@ -2271,7 +2245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2527</v>
       </c>
@@ -2285,7 +2259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2528</v>
       </c>
@@ -2299,7 +2273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2529</v>
       </c>
@@ -2313,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2530</v>
       </c>
@@ -2327,7 +2301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2531</v>
       </c>
@@ -2341,7 +2315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2532</v>
       </c>
@@ -2355,7 +2329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2533</v>
       </c>
@@ -2369,7 +2343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2534</v>
       </c>
@@ -2383,7 +2357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2535</v>
       </c>
@@ -2397,7 +2371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2537</v>
       </c>
@@ -2411,7 +2385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2538</v>
       </c>
@@ -2425,7 +2399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2539</v>
       </c>
@@ -2439,7 +2413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2540</v>
       </c>
@@ -2453,7 +2427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2541</v>
       </c>
@@ -2467,7 +2441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2542</v>
       </c>
@@ -2481,7 +2455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2543</v>
       </c>
@@ -2495,7 +2469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>4192</v>
       </c>
@@ -2509,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>4193</v>
       </c>
@@ -2523,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>4194</v>
       </c>
@@ -2537,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>4251</v>
       </c>
@@ -2551,7 +2525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>4252</v>
       </c>
@@ -2565,7 +2539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>4254</v>
       </c>
@@ -2579,7 +2553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>4255</v>
       </c>
@@ -2593,7 +2567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>4256</v>
       </c>
@@ -2607,7 +2581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>4257</v>
       </c>
@@ -2621,7 +2595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>4258</v>
       </c>
@@ -2635,7 +2609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>4259</v>
       </c>
@@ -2649,7 +2623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>4272</v>
       </c>
@@ -2663,7 +2637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>8264</v>
       </c>
@@ -2677,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>8847</v>
       </c>
@@ -2691,7 +2665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>8848</v>
       </c>
@@ -2705,7 +2679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>8851</v>
       </c>
@@ -2719,7 +2693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>8852</v>
       </c>
@@ -2733,7 +2707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>8857</v>
       </c>
@@ -2747,7 +2721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>8858</v>
       </c>
@@ -2761,7 +2735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>8861</v>
       </c>
@@ -2775,7 +2749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>8862</v>
       </c>
@@ -2789,7 +2763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>8863</v>
       </c>
@@ -2803,7 +2777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>8865</v>
       </c>
@@ -2817,7 +2791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>8931</v>
       </c>
@@ -2831,7 +2805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>8932</v>
       </c>
@@ -2845,7 +2819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>9011</v>
       </c>
@@ -2859,7 +2833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>9012</v>
       </c>
@@ -2873,7 +2847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>9013</v>
       </c>
@@ -2887,7 +2861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>9031</v>
       </c>
@@ -2901,7 +2875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>9032</v>
       </c>
@@ -2915,7 +2889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>9033</v>
       </c>
@@ -2929,7 +2903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>9034</v>
       </c>
@@ -2943,7 +2917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>9161</v>
       </c>
@@ -2957,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>9162</v>
       </c>
@@ -2971,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>9163</v>
       </c>
@@ -2985,7 +2959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>9164</v>
       </c>
@@ -2999,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>9519</v>
       </c>
@@ -3013,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>9648</v>
       </c>
@@ -3027,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>9841</v>
       </c>
@@ -3041,7 +3015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>11407</v>
       </c>
@@ -3055,7 +3029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>11471</v>
       </c>
@@ -3069,7 +3043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>13121</v>
       </c>
@@ -3083,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>13151</v>
       </c>
@@ -3097,7 +3071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>13335</v>
       </c>
@@ -3111,7 +3085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>13472</v>
       </c>
@@ -3125,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>13491</v>
       </c>
@@ -3139,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>13492</v>
       </c>
@@ -3153,7 +3127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>13723</v>
       </c>
@@ -3167,7 +3141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>15341</v>
       </c>
@@ -3181,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>15342</v>
       </c>
@@ -3195,7 +3169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>15343</v>
       </c>
@@ -3222,7 +3196,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
@@ -3230,7 +3204,7 @@
     <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3244,7 +3218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>77</v>
       </c>
@@ -3258,7 +3232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>103</v>
       </c>
@@ -3272,7 +3246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>165</v>
       </c>
@@ -3286,7 +3260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>367</v>
       </c>
@@ -3300,7 +3274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>479</v>
       </c>
@@ -3314,7 +3288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>523</v>
       </c>
@@ -3328,7 +3302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>631</v>
       </c>
@@ -3342,7 +3316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>719</v>
       </c>
@@ -3356,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>720</v>
       </c>
@@ -3370,7 +3344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>732</v>
       </c>
@@ -3384,7 +3358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>781</v>
       </c>
@@ -3398,7 +3372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>782</v>
       </c>
@@ -3412,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>783</v>
       </c>
@@ -3426,7 +3400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>784</v>
       </c>
@@ -3440,7 +3414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>785</v>
       </c>
@@ -3454,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>786</v>
       </c>
@@ -3468,7 +3442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>787</v>
       </c>
@@ -3482,7 +3456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>789</v>
       </c>
@@ -3496,7 +3470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>790</v>
       </c>
@@ -3510,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>791</v>
       </c>
@@ -3524,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>792</v>
       </c>
@@ -3538,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>793</v>
       </c>
@@ -3552,7 +3526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>794</v>
       </c>
@@ -3566,7 +3540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>795</v>
       </c>
@@ -3580,7 +3554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>796</v>
       </c>
@@ -3594,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>797</v>
       </c>
@@ -3608,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>798</v>
       </c>
@@ -3622,7 +3596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>799</v>
       </c>
@@ -3636,7 +3610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>800</v>
       </c>
@@ -3650,7 +3624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>801</v>
       </c>
@@ -3664,7 +3638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>802</v>
       </c>
@@ -3678,7 +3652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>852</v>
       </c>
@@ -3692,7 +3666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>853</v>
       </c>
@@ -3706,7 +3680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>857</v>
       </c>
@@ -3720,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>953</v>
       </c>
@@ -3734,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>1106</v>
       </c>
@@ -3748,7 +3722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>1107</v>
       </c>
@@ -3762,7 +3736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>1108</v>
       </c>
@@ -3776,7 +3750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>1109</v>
       </c>
@@ -3790,7 +3764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>1110</v>
       </c>
@@ -3804,7 +3778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>1111</v>
       </c>
@@ -3818,7 +3792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>1112</v>
       </c>
@@ -3832,7 +3806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>1456</v>
       </c>
@@ -3846,7 +3820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>1492</v>
       </c>
@@ -3860,7 +3834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>1511</v>
       </c>
@@ -3874,7 +3848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>1512</v>
       </c>
@@ -3888,7 +3862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>1513</v>
       </c>
@@ -3902,7 +3876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>1514</v>
       </c>
@@ -3916,7 +3890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>1515</v>
       </c>
@@ -3930,7 +3904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>1517</v>
       </c>
@@ -3944,7 +3918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>1518</v>
       </c>
@@ -3958,7 +3932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>1519</v>
       </c>
@@ -3972,7 +3946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>1835</v>
       </c>
@@ -3986,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>1922</v>
       </c>
@@ -4000,7 +3974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>1943</v>
       </c>
@@ -4014,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>1948</v>
       </c>
@@ -4028,7 +4002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>1949</v>
       </c>
@@ -4042,7 +4016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>1950</v>
       </c>
@@ -4056,7 +4030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>1951</v>
       </c>
@@ -4070,7 +4044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>1952</v>
       </c>
@@ -4084,7 +4058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>1953</v>
       </c>
@@ -4098,7 +4072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>1954</v>
       </c>
@@ -4112,7 +4086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>1955</v>
       </c>
@@ -4126,7 +4100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>2263</v>
       </c>
@@ -4140,7 +4114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>2428</v>
       </c>
@@ -4154,7 +4128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>2507</v>
       </c>
@@ -4168,7 +4142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>2508</v>
       </c>
@@ -4182,7 +4156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>4192</v>
       </c>
@@ -4196,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>4193</v>
       </c>
@@ -4210,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>4194</v>
       </c>
@@ -4224,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>4251</v>
       </c>
@@ -4238,7 +4212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>4252</v>
       </c>
@@ -4252,7 +4226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>4254</v>
       </c>
@@ -4266,7 +4240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>4255</v>
       </c>
@@ -4280,7 +4254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>4256</v>
       </c>
@@ -4294,7 +4268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>4257</v>
       </c>
@@ -4308,7 +4282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>4258</v>
       </c>
@@ -4322,7 +4296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>4259</v>
       </c>
@@ -4336,7 +4310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>4272</v>
       </c>
@@ -4350,7 +4324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>8264</v>
       </c>
@@ -4364,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>8847</v>
       </c>
@@ -4378,7 +4352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>8848</v>
       </c>
@@ -4392,7 +4366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>8851</v>
       </c>
@@ -4406,7 +4380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>8852</v>
       </c>
@@ -4420,7 +4394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>8857</v>
       </c>
@@ -4434,7 +4408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>8858</v>
       </c>
@@ -4448,7 +4422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>8861</v>
       </c>
@@ -4462,7 +4436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>8862</v>
       </c>
@@ -4476,7 +4450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>8863</v>
       </c>
@@ -4490,7 +4464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>8865</v>
       </c>
@@ -4504,7 +4478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>8931</v>
       </c>
@@ -4518,7 +4492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>8932</v>
       </c>
@@ -4532,7 +4506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>9161</v>
       </c>
@@ -4546,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>9162</v>
       </c>
@@ -4560,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>9163</v>
       </c>
@@ -4574,7 +4548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>9164</v>
       </c>
@@ -4588,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>9841</v>
       </c>
@@ -4602,7 +4576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>11471</v>
       </c>
@@ -4616,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>13121</v>
       </c>
@@ -4630,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>13151</v>
       </c>
@@ -4644,7 +4618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>13335</v>
       </c>
@@ -4658,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>13472</v>
       </c>
@@ -4672,7 +4646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>13491</v>
       </c>
@@ -4686,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>13492</v>
       </c>
@@ -4700,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>13723</v>
       </c>
@@ -4714,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>15342</v>
       </c>
@@ -4728,7 +4702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>15343</v>
       </c>
@@ -4742,7 +4716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4755,21 +4729,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD783050-EDB5-4AA1-B656-595D1DCBADC5}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="21"/>
+    <col min="4" max="4" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4783,413 +4757,440 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="19">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17">
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
         <v>11.7</v>
       </c>
-      <c r="D2" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="16" t="s">
+      <c r="D2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="20">
-        <v>2</v>
-      </c>
-      <c r="C3" s="17">
-        <v>6</v>
-      </c>
-      <c r="D3" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="16" t="s">
+      <c r="B3" s="14">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12">
+        <v>6</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="20">
-        <v>3</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="B4" s="14">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12">
         <v>24.9</v>
       </c>
-      <c r="D4" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="16" t="s">
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="20">
-        <v>6</v>
-      </c>
-      <c r="C5" s="17">
+      <c r="B5" s="14">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12">
         <v>0.9</v>
       </c>
-      <c r="D5" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="16" t="s">
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="19">
-        <v>1</v>
-      </c>
-      <c r="C6" s="17">
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
         <v>19.350000000000001</v>
       </c>
-      <c r="D6" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="16" t="s">
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="20">
-        <v>2</v>
-      </c>
-      <c r="C7" s="17">
+      <c r="B7" s="14">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12">
         <v>22.36</v>
       </c>
-      <c r="D7" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="16" t="s">
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="20">
-        <v>3</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="B8" s="14">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12">
         <v>18.920000000000002</v>
       </c>
-      <c r="D8" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="16" t="s">
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="20">
-        <v>4</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="B9" s="14">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12">
         <v>3.44</v>
       </c>
-      <c r="D9" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="16" t="s">
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="20">
-        <v>6</v>
-      </c>
-      <c r="C10" s="17">
+      <c r="B10" s="14">
+        <v>6</v>
+      </c>
+      <c r="C10" s="12">
         <v>3.87</v>
       </c>
-      <c r="D10" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="12" t="s">
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="19">
-        <v>1</v>
-      </c>
-      <c r="C11" s="17">
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
         <v>8.82</v>
       </c>
-      <c r="D11" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="16" t="s">
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="19">
-        <v>1</v>
-      </c>
-      <c r="C12" s="17">
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12">
         <v>24.44</v>
       </c>
-      <c r="D12" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="16" t="s">
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="20">
-        <v>3</v>
-      </c>
-      <c r="C13" s="17">
+      <c r="B13" s="14">
+        <v>3</v>
+      </c>
+      <c r="C13" s="12">
         <v>31.96</v>
       </c>
-      <c r="D13" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="12" t="s">
+      <c r="D13" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="19">
-        <v>1</v>
-      </c>
-      <c r="C14" s="17">
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12">
         <v>11.22</v>
       </c>
-      <c r="D14" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="12" t="s">
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="19">
-        <v>2</v>
-      </c>
-      <c r="C15" s="17">
+      <c r="B15" s="13">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12">
         <v>8.7200000000000006</v>
       </c>
-      <c r="D15" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="12" t="s">
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="19">
-        <v>2</v>
-      </c>
-      <c r="C16" s="17">
+      <c r="B16" s="13">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12">
         <v>3.12</v>
       </c>
-      <c r="D16" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="16" t="s">
+      <c r="D16" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="19">
-        <v>1</v>
-      </c>
-      <c r="C17" s="17">
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
         <v>52.65</v>
       </c>
-      <c r="D17" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="16" t="s">
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="20">
-        <v>2</v>
-      </c>
-      <c r="C18" s="17">
+      <c r="B18" s="14">
+        <v>2</v>
+      </c>
+      <c r="C18" s="12">
         <v>21.6</v>
       </c>
-      <c r="D18" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="10"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="11"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="18"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="11"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="18"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="15"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="17"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="15"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="17"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="15"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="17"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="15"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="17"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="15"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="17"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="15"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="17"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="15"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="17"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="15"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="17"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="15"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="17"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="12"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="17"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="15"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="17"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="15"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="17"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="12"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="17"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="12"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="17"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="12"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="17"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="15"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="17"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="13"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="15"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="17"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="F43" s="15"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="13"/>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A41:A42"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -5202,7 +5203,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
@@ -5210,7 +5211,7 @@
     <col min="4" max="4" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5224,7 +5225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>26</v>
       </c>
@@ -5238,7 +5239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>77</v>
       </c>
@@ -5252,7 +5253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>84</v>
       </c>
@@ -5266,7 +5267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -5280,7 +5281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>112</v>
       </c>
@@ -5294,7 +5295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>124</v>
       </c>
@@ -5308,7 +5309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>165</v>
       </c>
@@ -5322,7 +5323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>229</v>
       </c>
@@ -5336,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>252</v>
       </c>
@@ -5350,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>262</v>
       </c>
@@ -5364,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>297</v>
       </c>
@@ -5378,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>310</v>
       </c>
@@ -5392,7 +5393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>314</v>
       </c>
@@ -5406,7 +5407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>323</v>
       </c>
@@ -5420,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>367</v>
       </c>
@@ -5434,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>383</v>
       </c>
@@ -5448,7 +5449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>473</v>
       </c>
@@ -5462,7 +5463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>477</v>
       </c>
@@ -5476,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>479</v>
       </c>
@@ -5490,7 +5491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>497</v>
       </c>
@@ -5504,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>523</v>
       </c>
@@ -5518,7 +5519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>601</v>
       </c>
@@ -5532,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>608</v>
       </c>
@@ -5546,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>631</v>
       </c>
@@ -5560,7 +5561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>646</v>
       </c>
@@ -5574,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>647</v>
       </c>
@@ -5588,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>648</v>
       </c>
@@ -5602,7 +5603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>649</v>
       </c>
@@ -5616,7 +5617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>650</v>
       </c>
@@ -5630,7 +5631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>652</v>
       </c>
@@ -5644,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>719</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>720</v>
       </c>
@@ -5672,7 +5673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>732</v>
       </c>
@@ -5686,7 +5687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>781</v>
       </c>
@@ -5700,7 +5701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>782</v>
       </c>
@@ -5714,7 +5715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>783</v>
       </c>
@@ -5728,7 +5729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>784</v>
       </c>
@@ -5742,7 +5743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>785</v>
       </c>
@@ -5756,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>786</v>
       </c>
@@ -5770,7 +5771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>787</v>
       </c>
@@ -5784,7 +5785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>789</v>
       </c>
@@ -5798,7 +5799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>790</v>
       </c>
@@ -5812,7 +5813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>791</v>
       </c>
@@ -5826,7 +5827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>792</v>
       </c>
@@ -5840,7 +5841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>793</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>794</v>
       </c>
@@ -5868,7 +5869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>795</v>
       </c>
@@ -5882,7 +5883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>796</v>
       </c>
@@ -5896,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>797</v>
       </c>
@@ -5910,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>798</v>
       </c>
@@ -5924,7 +5925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>799</v>
       </c>
@@ -5938,7 +5939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>800</v>
       </c>
@@ -5952,7 +5953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>801</v>
       </c>
@@ -5966,7 +5967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>802</v>
       </c>
@@ -5980,7 +5981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>831</v>
       </c>
@@ -5994,7 +5995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>832</v>
       </c>
@@ -6008,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>852</v>
       </c>
@@ -6022,7 +6023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>853</v>
       </c>
@@ -6036,7 +6037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>857</v>
       </c>
@@ -6050,7 +6051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>953</v>
       </c>
@@ -6064,7 +6065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1042</v>
       </c>
@@ -6078,7 +6079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1043</v>
       </c>
@@ -6092,7 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1106</v>
       </c>
@@ -6106,7 +6107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1107</v>
       </c>
@@ -6120,7 +6121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1108</v>
       </c>
@@ -6134,7 +6135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1109</v>
       </c>
@@ -6148,7 +6149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1110</v>
       </c>
@@ -6162,7 +6163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1111</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1112</v>
       </c>
@@ -6190,7 +6191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1295</v>
       </c>
@@ -6204,7 +6205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1456</v>
       </c>
@@ -6218,7 +6219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1492</v>
       </c>
@@ -6232,7 +6233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1511</v>
       </c>
@@ -6246,7 +6247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1512</v>
       </c>
@@ -6260,7 +6261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1513</v>
       </c>
@@ -6274,7 +6275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1514</v>
       </c>
@@ -6288,7 +6289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1515</v>
       </c>
@@ -6302,7 +6303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1517</v>
       </c>
@@ -6316,7 +6317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1518</v>
       </c>
@@ -6330,7 +6331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1519</v>
       </c>
@@ -6344,7 +6345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1835</v>
       </c>
@@ -6358,7 +6359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1894</v>
       </c>
@@ -6372,7 +6373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1895</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1922</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1943</v>
       </c>
@@ -6414,7 +6415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1948</v>
       </c>
@@ -6428,7 +6429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1949</v>
       </c>
@@ -6442,7 +6443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1950</v>
       </c>
@@ -6456,7 +6457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1951</v>
       </c>
@@ -6470,7 +6471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1952</v>
       </c>
@@ -6484,7 +6485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1953</v>
       </c>
@@ -6498,7 +6499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1954</v>
       </c>
@@ -6512,7 +6513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1955</v>
       </c>
@@ -6526,7 +6527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2263</v>
       </c>
@@ -6540,7 +6541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2276</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2294</v>
       </c>
@@ -6568,7 +6569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2428</v>
       </c>
@@ -6582,7 +6583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2507</v>
       </c>
@@ -6596,7 +6597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2508</v>
       </c>
@@ -6610,7 +6611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2521</v>
       </c>
@@ -6624,7 +6625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2522</v>
       </c>
@@ -6638,7 +6639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2523</v>
       </c>
@@ -6652,7 +6653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2524</v>
       </c>
@@ -6666,7 +6667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2525</v>
       </c>
@@ -6680,7 +6681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2526</v>
       </c>
@@ -6694,7 +6695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2527</v>
       </c>
@@ -6708,7 +6709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2528</v>
       </c>
@@ -6722,7 +6723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2529</v>
       </c>
@@ -6736,7 +6737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2530</v>
       </c>
@@ -6750,7 +6751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2531</v>
       </c>
@@ -6764,7 +6765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2532</v>
       </c>
@@ -6778,7 +6779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2533</v>
       </c>
@@ -6792,7 +6793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2534</v>
       </c>
@@ -6806,7 +6807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2535</v>
       </c>
@@ -6820,7 +6821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2537</v>
       </c>
@@ -6834,7 +6835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2538</v>
       </c>
@@ -6848,7 +6849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2539</v>
       </c>
@@ -6862,7 +6863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2540</v>
       </c>
@@ -6876,7 +6877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2541</v>
       </c>
@@ -6890,7 +6891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2542</v>
       </c>
@@ -6904,7 +6905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2543</v>
       </c>
@@ -6918,7 +6919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>4192</v>
       </c>
@@ -6932,7 +6933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>4193</v>
       </c>
@@ -6946,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>4194</v>
       </c>
@@ -6960,7 +6961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>4251</v>
       </c>
@@ -6974,7 +6975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>4252</v>
       </c>
@@ -6988,7 +6989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>4254</v>
       </c>
@@ -7002,7 +7003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>4255</v>
       </c>
@@ -7016,7 +7017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>4256</v>
       </c>
@@ -7030,7 +7031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>4257</v>
       </c>
@@ -7044,7 +7045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>4258</v>
       </c>
@@ -7058,7 +7059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>4259</v>
       </c>
@@ -7072,7 +7073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>4272</v>
       </c>
@@ -7086,7 +7087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>8264</v>
       </c>
@@ -7100,7 +7101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>8847</v>
       </c>
@@ -7114,7 +7115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>8848</v>
       </c>
@@ -7128,7 +7129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>8851</v>
       </c>
@@ -7142,7 +7143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>8852</v>
       </c>
@@ -7156,7 +7157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>8857</v>
       </c>
@@ -7170,7 +7171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>8858</v>
       </c>
@@ -7184,7 +7185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>8861</v>
       </c>
@@ -7198,7 +7199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>8862</v>
       </c>
@@ -7212,7 +7213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>8863</v>
       </c>
@@ -7226,7 +7227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>8865</v>
       </c>
@@ -7240,7 +7241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>8931</v>
       </c>
@@ -7254,7 +7255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>8932</v>
       </c>
@@ -7268,7 +7269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>9011</v>
       </c>
@@ -7282,7 +7283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>9012</v>
       </c>
@@ -7296,7 +7297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>9013</v>
       </c>
@@ -7310,7 +7311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>9031</v>
       </c>
@@ -7324,7 +7325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>9032</v>
       </c>
@@ -7338,7 +7339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>9033</v>
       </c>
@@ -7352,7 +7353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>9034</v>
       </c>
@@ -7366,7 +7367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>9161</v>
       </c>
@@ -7380,7 +7381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>9162</v>
       </c>
@@ -7394,7 +7395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>9163</v>
       </c>
@@ -7408,7 +7409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>9164</v>
       </c>
@@ -7422,7 +7423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>9519</v>
       </c>
@@ -7436,7 +7437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>9648</v>
       </c>
@@ -7450,7 +7451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>9841</v>
       </c>
@@ -7464,7 +7465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>11407</v>
       </c>
@@ -7478,7 +7479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>11471</v>
       </c>
@@ -7492,7 +7493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>13121</v>
       </c>
@@ -7506,7 +7507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>13151</v>
       </c>
@@ -7520,7 +7521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>13335</v>
       </c>
@@ -7534,7 +7535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>13472</v>
       </c>
@@ -7548,7 +7549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>13491</v>
       </c>
@@ -7562,7 +7563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>13492</v>
       </c>
@@ -7576,7 +7577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>13723</v>
       </c>
@@ -7590,7 +7591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>15341</v>
       </c>
@@ -7604,7 +7605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>15342</v>
       </c>
@@ -7618,7 +7619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>15343</v>
       </c>
@@ -7646,7 +7647,7 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
@@ -7654,7 +7655,7 @@
     <col min="4" max="4" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7668,7 +7669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -7682,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -7696,7 +7697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -7710,7 +7711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -7724,7 +7725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -7738,7 +7739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -7752,7 +7753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -7766,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -7780,7 +7781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -7794,7 +7795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -7808,7 +7809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -7822,7 +7823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -7836,7 +7837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -7850,7 +7851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -7864,7 +7865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -7878,7 +7879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -7892,7 +7893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -7906,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -7920,7 +7921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -7934,7 +7935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -7948,7 +7949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -7962,7 +7963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -7976,7 +7977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -7990,7 +7991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -8004,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -8018,7 +8019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -8032,7 +8033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -8046,7 +8047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -8060,7 +8061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -8074,7 +8075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -8088,7 +8089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -8102,7 +8103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -8116,7 +8117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -8130,7 +8131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -8144,7 +8145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -8158,7 +8159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -8172,7 +8173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -8186,7 +8187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -8200,7 +8201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -8214,7 +8215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -8228,7 +8229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -8242,7 +8243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -8256,7 +8257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -8270,7 +8271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -8284,7 +8285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -8298,7 +8299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -8312,7 +8313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -8326,7 +8327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -8340,7 +8341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -8368,7 +8369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -8382,7 +8383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -8396,7 +8397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -8410,7 +8411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -8424,7 +8425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -8438,7 +8439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -8452,7 +8453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
@@ -8466,7 +8467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -8480,7 +8481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
@@ -8494,7 +8495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
@@ -8508,7 +8509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
@@ -8522,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -8536,7 +8537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
@@ -8550,7 +8551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
@@ -8564,7 +8565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -8578,7 +8579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
@@ -8592,7 +8593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -8606,7 +8607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
@@ -8620,7 +8621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -8634,7 +8635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
@@ -8648,7 +8649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
@@ -8662,7 +8663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
@@ -8676,7 +8677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -8690,7 +8691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -8704,7 +8705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
@@ -8718,7 +8719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
@@ -8732,7 +8733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
@@ -8746,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
@@ -8760,7 +8761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
@@ -8774,7 +8775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
@@ -8788,7 +8789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
@@ -8802,7 +8803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
@@ -8816,7 +8817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
@@ -8830,7 +8831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\Otimizacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4F1282-C9AC-4218-8ACB-8E08288DA27F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136319FF-5A7D-4BF9-9202-3A5E1A1B3AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
@@ -4729,10 +4729,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD783050-EDB5-4AA1-B656-595D1DCBADC5}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5189,6 +5189,16 @@
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/JeceabaPlanos.xlsx
+++ b/JeceabaPlanos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\OneDrive\Vallourec\Otimizacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136319FF-5A7D-4BF9-9202-3A5E1A1B3AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877C3543-25E2-4B2E-9899-E0FA959B939A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FDF406A-17AB-4A32-8FF2-BA48FC33EB2F}"/>
   </bookViews>
@@ -21,6 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Atual!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Vibração!$A$1:$D$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="111">
   <si>
     <t>Atividade</t>
   </si>
@@ -298,28 +299,73 @@
     <t>Rota 84</t>
   </si>
   <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>ENE</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>NDT</t>
-  </si>
-  <si>
-    <t>OFC</t>
-  </si>
-  <si>
-    <t>PBL</t>
-  </si>
-  <si>
-    <t>RK</t>
+    <t>VIB_Aciaria_Quinzenal 11392</t>
+  </si>
+  <si>
+    <t>VIB_Aciaria_Mensal 11393</t>
+  </si>
+  <si>
+    <t>VIB_Aciaria_Bimestral 11384</t>
+  </si>
+  <si>
+    <t>VIB_Aciaria_Trimestral 11394</t>
+  </si>
+  <si>
+    <t>VIB_Ajustagem_Mensal 11425</t>
+  </si>
+  <si>
+    <t>VIB_Ajustagem_Bimestral 11397</t>
+  </si>
+  <si>
+    <t>VIB_Ajustagem_Trimestral 11398</t>
+  </si>
+  <si>
+    <t>VIB_Alto Forno_Mensal 11406</t>
+  </si>
+  <si>
+    <t>VIB_Alto Forno_Bimestral 11426</t>
+  </si>
+  <si>
+    <t>VIB_Laminador_Mensal 11400</t>
+  </si>
+  <si>
+    <t>VIB_Laminador_Bimestral 11421</t>
+  </si>
+  <si>
+    <t>VIB_Laminador_Trimestral 11414</t>
+  </si>
+  <si>
+    <t>VIB_OCTG_Mensal 11403</t>
+  </si>
+  <si>
+    <t>VIB_OCTG_Bimestral 11395</t>
+  </si>
+  <si>
+    <t>VIB_OCTG_Trimestral 11422</t>
+  </si>
+  <si>
+    <t>VIB_Pelota_Mensal 11404</t>
+  </si>
+  <si>
+    <t>VIB_Pelota_Bimestral 11413</t>
+  </si>
+  <si>
+    <t>VIB_Tempera_Trimestral</t>
+  </si>
+  <si>
+    <t>VIB_NDT_Bimestral 11399</t>
+  </si>
+  <si>
+    <t>VIB_Pontes_Bimestral 11405</t>
+  </si>
+  <si>
+    <t>VIB_Tempera_Mensal 11396</t>
+  </si>
+  <si>
+    <t>VIB_Tempera_Bimestral 18774</t>
+  </si>
+  <si>
+    <t>VIB_Laboratório_Trimestral 11423</t>
   </si>
 </sst>
 </file>
@@ -329,7 +375,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,19 +397,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -398,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -419,22 +452,10 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4731,16 +4752,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD783050-EDB5-4AA1-B656-595D1DCBADC5}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:O59"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="15"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4759,57 +4780,57 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>11.7</v>
-      </c>
-      <c r="D2" s="15">
+        <v>97</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>63.75</v>
+      </c>
+      <c r="D2" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="14">
-        <v>2</v>
-      </c>
-      <c r="C3" s="12">
-        <v>6</v>
-      </c>
-      <c r="D3" s="15">
+        <v>99</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45.833333333333336</v>
+      </c>
+      <c r="D3" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="14">
-        <v>3</v>
-      </c>
-      <c r="C4" s="12">
-        <v>24.9</v>
-      </c>
-      <c r="D4" s="15">
+        <v>103</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="14">
-        <v>6</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="D5" s="15">
+        <v>101</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>36.666666666666671</v>
+      </c>
+      <c r="D5" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4817,213 +4838,268 @@
       <c r="A6" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
-        <v>19.350000000000001</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>30.416666666666668</v>
+      </c>
+      <c r="D6" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="14">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12">
-        <v>22.36</v>
-      </c>
-      <c r="D7" s="15">
+        <v>96</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>22.083333333333336</v>
+      </c>
+      <c r="D7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="14">
-        <v>3</v>
-      </c>
-      <c r="C8" s="12">
-        <v>18.920000000000002</v>
-      </c>
-      <c r="D8" s="15">
+        <v>94</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>19.583333333333336</v>
+      </c>
+      <c r="D8" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="14">
-        <v>4</v>
-      </c>
-      <c r="C9" s="12">
-        <v>3.44</v>
-      </c>
-      <c r="D9" s="15">
+        <v>104</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>19.583333333333336</v>
+      </c>
+      <c r="D9" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="14">
-        <v>6</v>
-      </c>
-      <c r="C10" s="12">
-        <v>3.87</v>
-      </c>
-      <c r="D10" s="15">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>18.333333333333336</v>
+      </c>
+      <c r="D10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="13">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12">
-        <v>8.82</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="A11" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>17.083333333333336</v>
+      </c>
+      <c r="D11" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="13">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12">
-        <v>24.44</v>
-      </c>
-      <c r="D12" s="15">
+        <v>110</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>15.416666666666668</v>
+      </c>
+      <c r="D12" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>13.75</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="14">
-        <v>3</v>
-      </c>
-      <c r="C13" s="12">
-        <v>31.96</v>
-      </c>
-      <c r="D13" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="B14" s="5">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5">
+        <v>9.1666666666666679</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="13">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12">
-        <v>11.22</v>
-      </c>
-      <c r="D14" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="13">
-        <v>2</v>
-      </c>
-      <c r="C15" s="12">
-        <v>8.7200000000000006</v>
-      </c>
-      <c r="D15" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="13">
-        <v>2</v>
-      </c>
-      <c r="C16" s="12">
-        <v>3.12</v>
-      </c>
-      <c r="D16" s="15">
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="D16" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="13">
-        <v>1</v>
-      </c>
-      <c r="C17" s="12">
-        <v>52.65</v>
-      </c>
-      <c r="D17" s="15">
+        <v>98</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D17" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="14">
-        <v>2</v>
-      </c>
-      <c r="C18" s="12">
-        <v>21.6</v>
-      </c>
-      <c r="D18" s="15">
+        <v>108</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5.8333333333333339</v>
+      </c>
+      <c r="D18" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
+      <c r="A19" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f>2.08333333333333*2</f>
+        <v>4.1666666666666599</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
+      <c r="A20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
+      <c r="A21" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
+      <c r="A22" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
+      <c r="A23" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
+      <c r="A24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="5">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25"/>
@@ -5065,142 +5141,35 @@
       <c r="C32"/>
       <c r="D32"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:D24" xr:uid="{C10C4748-27E2-4C30-B0EA-10FFDDEE4FD2}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
